--- a/data/Popravki - IMapBook - CREW and discussions dataset.xlsx
+++ b/data/Popravki - IMapBook - CREW and discussions dataset.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\NLP_projekt\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk7528\Documents\Fakulteta\2.letnik\ONJ\Project\Git_NLP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F95201-5DC9-480C-A2C4-A1C37DABA814}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CREW data" sheetId="2" r:id="rId1"/>
     <sheet name="Discussion only data" sheetId="3" r:id="rId2"/>
     <sheet name="CREW final responses" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6718" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6716" uniqueCount="961">
   <si>
     <t>Course</t>
   </si>
@@ -1428,9 +1440,6 @@
   </si>
   <si>
     <t>Matthew said he would be able to get on later tonight.</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t xml:space="preserve"> I am planning on checking in later to see what he adds ...</t>
@@ -3005,7 +3014,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="10"/>
@@ -3294,8 +3303,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperpovezava" xfId="1" builtinId="8"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3507,12 +3516,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G317" sqref="G1:G1048576"/>
+      <pane ySplit="1" topLeftCell="A689" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B713" sqref="B713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -7797,8 +7806,8 @@
       <c r="A123" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="45" t="s">
-        <v>169</v>
+      <c r="B123" s="45">
+        <v>260</v>
       </c>
       <c r="C123" s="19" t="s">
         <v>169</v>
@@ -7832,8 +7841,8 @@
       <c r="A124" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B124" s="45" t="s">
-        <v>169</v>
+      <c r="B124" s="45">
+        <v>260</v>
       </c>
       <c r="C124" s="19" t="s">
         <v>169</v>
@@ -20108,8 +20117,8 @@
       <c r="A400" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="B400" s="43" t="s">
-        <v>469</v>
+      <c r="B400" s="43">
+        <v>267</v>
       </c>
       <c r="C400" s="9" t="s">
         <v>357</v>
@@ -20121,7 +20130,7 @@
         <v>460</v>
       </c>
       <c r="F400" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G400" s="8" t="s">
         <v>61</v>
@@ -20179,8 +20188,8 @@
       <c r="A401" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="B401" s="43" t="s">
-        <v>469</v>
+      <c r="B401" s="43">
+        <v>267</v>
       </c>
       <c r="C401" s="9" t="s">
         <v>357</v>
@@ -20192,7 +20201,7 @@
         <v>460</v>
       </c>
       <c r="F401" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G401" s="8" t="s">
         <v>61</v>
@@ -20263,7 +20272,7 @@
         <v>464</v>
       </c>
       <c r="F402" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G402" s="8" t="s">
         <v>41</v>
@@ -20310,7 +20319,7 @@
         <v>464</v>
       </c>
       <c r="F403" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G403" s="8" t="s">
         <v>41</v>
@@ -20354,10 +20363,10 @@
         <v>113</v>
       </c>
       <c r="E404" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F404" s="8" t="s">
         <v>473</v>
-      </c>
-      <c r="F404" s="8" t="s">
-        <v>474</v>
       </c>
       <c r="G404" s="8" t="s">
         <v>361</v>
@@ -20425,10 +20434,10 @@
         <v>113</v>
       </c>
       <c r="E405" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F405" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G405" s="8" t="s">
         <v>361</v>
@@ -20496,10 +20505,10 @@
         <v>113</v>
       </c>
       <c r="E406" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F406" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G406" s="8" t="s">
         <v>361</v>
@@ -20567,10 +20576,10 @@
         <v>113</v>
       </c>
       <c r="E407" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F407" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G407" s="8" t="s">
         <v>45</v>
@@ -20638,10 +20647,10 @@
         <v>113</v>
       </c>
       <c r="E408" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F408" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G408" s="70" t="s">
         <v>69</v>
@@ -20697,7 +20706,7 @@
     </row>
     <row r="409" spans="1:23" s="21" customFormat="1" ht="45.75" thickTop="1">
       <c r="A409" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B409" s="45">
         <v>267</v>
@@ -20709,10 +20718,10 @@
         <v>16</v>
       </c>
       <c r="E409" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="F409" s="18" t="s">
         <v>480</v>
-      </c>
-      <c r="F409" s="18" t="s">
-        <v>481</v>
       </c>
       <c r="G409" s="18" t="s">
         <v>22</v>
@@ -20732,7 +20741,7 @@
     </row>
     <row r="410" spans="1:23" s="21" customFormat="1" ht="45">
       <c r="A410" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B410" s="45">
         <v>267</v>
@@ -20744,10 +20753,10 @@
         <v>16</v>
       </c>
       <c r="E410" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F410" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G410" s="18" t="s">
         <v>22</v>
@@ -20767,7 +20776,7 @@
     </row>
     <row r="411" spans="1:23" s="21" customFormat="1" ht="45">
       <c r="A411" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B411" s="45">
         <v>267</v>
@@ -20779,10 +20788,10 @@
         <v>16</v>
       </c>
       <c r="E411" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F411" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G411" s="18" t="s">
         <v>22</v>
@@ -20802,7 +20811,7 @@
     </row>
     <row r="412" spans="1:23" s="21" customFormat="1" ht="30">
       <c r="A412" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B412" s="45">
         <v>267</v>
@@ -20814,10 +20823,10 @@
         <v>16</v>
       </c>
       <c r="E412" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F412" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G412" s="18" t="s">
         <v>22</v>
@@ -20837,7 +20846,7 @@
     </row>
     <row r="413" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A413" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B413" s="45">
         <v>267</v>
@@ -20849,10 +20858,10 @@
         <v>16</v>
       </c>
       <c r="E413" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F413" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G413" s="18" t="s">
         <v>22</v>
@@ -20872,7 +20881,7 @@
     </row>
     <row r="414" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A414" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B414" s="45">
         <v>267</v>
@@ -20884,10 +20893,10 @@
         <v>16</v>
       </c>
       <c r="E414" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F414" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G414" s="18" t="s">
         <v>351</v>
@@ -20907,7 +20916,7 @@
     </row>
     <row r="415" spans="1:23" s="21" customFormat="1" ht="45">
       <c r="A415" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B415" s="45">
         <v>267</v>
@@ -20919,10 +20928,10 @@
         <v>16</v>
       </c>
       <c r="E415" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="F415" s="18" t="s">
         <v>487</v>
-      </c>
-      <c r="F415" s="18" t="s">
-        <v>488</v>
       </c>
       <c r="G415" s="18" t="s">
         <v>22</v>
@@ -20942,7 +20951,7 @@
     </row>
     <row r="416" spans="1:23" s="21" customFormat="1" ht="30">
       <c r="A416" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B416" s="45">
         <v>267</v>
@@ -20954,10 +20963,10 @@
         <v>16</v>
       </c>
       <c r="E416" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F416" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G416" s="18" t="s">
         <v>22</v>
@@ -20977,7 +20986,7 @@
     </row>
     <row r="417" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A417" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B417" s="45">
         <v>267</v>
@@ -20989,10 +20998,10 @@
         <v>16</v>
       </c>
       <c r="E417" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F417" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G417" s="18" t="s">
         <v>22</v>
@@ -21012,7 +21021,7 @@
     </row>
     <row r="418" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A418" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B418" s="45">
         <v>267</v>
@@ -21024,10 +21033,10 @@
         <v>16</v>
       </c>
       <c r="E418" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F418" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G418" s="18" t="s">
         <v>22</v>
@@ -21047,7 +21056,7 @@
     </row>
     <row r="419" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A419" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B419" s="45">
         <v>267</v>
@@ -21059,10 +21068,10 @@
         <v>16</v>
       </c>
       <c r="E419" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F419" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G419" s="18" t="s">
         <v>22</v>
@@ -21082,7 +21091,7 @@
     </row>
     <row r="420" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A420" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B420" s="45">
         <v>267</v>
@@ -21094,10 +21103,10 @@
         <v>63</v>
       </c>
       <c r="E420" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="F420" s="18" t="s">
         <v>493</v>
-      </c>
-      <c r="F420" s="18" t="s">
-        <v>494</v>
       </c>
       <c r="G420" s="18" t="s">
         <v>61</v>
@@ -21117,7 +21126,7 @@
     </row>
     <row r="421" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A421" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B421" s="45">
         <v>267</v>
@@ -21129,10 +21138,10 @@
         <v>63</v>
       </c>
       <c r="E421" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F421" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G421" s="18" t="s">
         <v>61</v>
@@ -21152,7 +21161,7 @@
     </row>
     <row r="422" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A422" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B422" s="45">
         <v>267</v>
@@ -21164,10 +21173,10 @@
         <v>63</v>
       </c>
       <c r="E422" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="F422" s="18" t="s">
         <v>496</v>
-      </c>
-      <c r="F422" s="18" t="s">
-        <v>497</v>
       </c>
       <c r="G422" s="18" t="s">
         <v>61</v>
@@ -21187,7 +21196,7 @@
     </row>
     <row r="423" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A423" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B423" s="45">
         <v>267</v>
@@ -21199,10 +21208,10 @@
         <v>63</v>
       </c>
       <c r="E423" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F423" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G423" s="18" t="s">
         <v>132</v>
@@ -21222,7 +21231,7 @@
     </row>
     <row r="424" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A424" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B424" s="45">
         <v>267</v>
@@ -21234,10 +21243,10 @@
         <v>63</v>
       </c>
       <c r="E424" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F424" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G424" s="18" t="s">
         <v>61</v>
@@ -21257,7 +21266,7 @@
     </row>
     <row r="425" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A425" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B425" s="45">
         <v>267</v>
@@ -21269,10 +21278,10 @@
         <v>63</v>
       </c>
       <c r="E425" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F425" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G425" s="18" t="s">
         <v>61</v>
@@ -21292,7 +21301,7 @@
     </row>
     <row r="426" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A426" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B426" s="45">
         <v>267</v>
@@ -21304,10 +21313,10 @@
         <v>63</v>
       </c>
       <c r="E426" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F426" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G426" s="18" t="s">
         <v>34</v>
@@ -21327,7 +21336,7 @@
     </row>
     <row r="427" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A427" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B427" s="45">
         <v>267</v>
@@ -21339,10 +21348,10 @@
         <v>63</v>
       </c>
       <c r="E427" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F427" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G427" s="18" t="s">
         <v>34</v>
@@ -21362,7 +21371,7 @@
     </row>
     <row r="428" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A428" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B428" s="45">
         <v>267</v>
@@ -21374,10 +21383,10 @@
         <v>63</v>
       </c>
       <c r="E428" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F428" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G428" s="18" t="s">
         <v>45</v>
@@ -21397,7 +21406,7 @@
     </row>
     <row r="429" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A429" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B429" s="45">
         <v>267</v>
@@ -21409,10 +21418,10 @@
         <v>63</v>
       </c>
       <c r="E429" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F429" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G429" s="18" t="s">
         <v>188</v>
@@ -21432,7 +21441,7 @@
     </row>
     <row r="430" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A430" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B430" s="45">
         <v>267</v>
@@ -21444,10 +21453,10 @@
         <v>63</v>
       </c>
       <c r="E430" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F430" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G430" s="18" t="s">
         <v>45</v>
@@ -21467,7 +21476,7 @@
     </row>
     <row r="431" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A431" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B431" s="45">
         <v>267</v>
@@ -21479,10 +21488,10 @@
         <v>63</v>
       </c>
       <c r="E431" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F431" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G431" s="18" t="s">
         <v>45</v>
@@ -21502,7 +21511,7 @@
     </row>
     <row r="432" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A432" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B432" s="45">
         <v>267</v>
@@ -21514,10 +21523,10 @@
         <v>63</v>
       </c>
       <c r="E432" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F432" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G432" s="18" t="s">
         <v>41</v>
@@ -21537,7 +21546,7 @@
     </row>
     <row r="433" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A433" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B433" s="45">
         <v>267</v>
@@ -21549,10 +21558,10 @@
         <v>63</v>
       </c>
       <c r="E433" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F433" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G433" s="18" t="s">
         <v>41</v>
@@ -21572,7 +21581,7 @@
     </row>
     <row r="434" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A434" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B434" s="45">
         <v>267</v>
@@ -21584,10 +21593,10 @@
         <v>63</v>
       </c>
       <c r="E434" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F434" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G434" s="18" t="s">
         <v>41</v>
@@ -21607,7 +21616,7 @@
     </row>
     <row r="435" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A435" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B435" s="45">
         <v>267</v>
@@ -21619,10 +21628,10 @@
         <v>63</v>
       </c>
       <c r="E435" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F435" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G435" s="18" t="s">
         <v>188</v>
@@ -21642,7 +21651,7 @@
     </row>
     <row r="436" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A436" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B436" s="45">
         <v>267</v>
@@ -21654,10 +21663,10 @@
         <v>63</v>
       </c>
       <c r="E436" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F436" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G436" s="18" t="s">
         <v>45</v>
@@ -21677,7 +21686,7 @@
     </row>
     <row r="437" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A437" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B437" s="45">
         <v>267</v>
@@ -21689,10 +21698,10 @@
         <v>63</v>
       </c>
       <c r="E437" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F437" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G437" s="18" t="s">
         <v>45</v>
@@ -21712,7 +21721,7 @@
     </row>
     <row r="438" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A438" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B438" s="45">
         <v>267</v>
@@ -21724,10 +21733,10 @@
         <v>63</v>
       </c>
       <c r="E438" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F438" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G438" s="18" t="s">
         <v>61</v>
@@ -21747,7 +21756,7 @@
     </row>
     <row r="439" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A439" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B439" s="45">
         <v>267</v>
@@ -21759,10 +21768,10 @@
         <v>63</v>
       </c>
       <c r="E439" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F439" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G439" s="18" t="s">
         <v>61</v>
@@ -21782,7 +21791,7 @@
     </row>
     <row r="440" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A440" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B440" s="45">
         <v>267</v>
@@ -21794,10 +21803,10 @@
         <v>63</v>
       </c>
       <c r="E440" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F440" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G440" s="18" t="s">
         <v>41</v>
@@ -21817,7 +21826,7 @@
     </row>
     <row r="441" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A441" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B441" s="45">
         <v>267</v>
@@ -21829,10 +21838,10 @@
         <v>63</v>
       </c>
       <c r="E441" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F441" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G441" s="18" t="s">
         <v>45</v>
@@ -21852,7 +21861,7 @@
     </row>
     <row r="442" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A442" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B442" s="45">
         <v>267</v>
@@ -21864,10 +21873,10 @@
         <v>63</v>
       </c>
       <c r="E442" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F442" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G442" s="18" t="s">
         <v>61</v>
@@ -21887,7 +21896,7 @@
     </row>
     <row r="443" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A443" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B443" s="45">
         <v>267</v>
@@ -21899,10 +21908,10 @@
         <v>63</v>
       </c>
       <c r="E443" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F443" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G443" s="69" t="s">
         <v>177</v>
@@ -21922,7 +21931,7 @@
     </row>
     <row r="444" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A444" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B444" s="45">
         <v>267</v>
@@ -21934,10 +21943,10 @@
         <v>63</v>
       </c>
       <c r="E444" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F444" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G444" s="69" t="s">
         <v>41</v>
@@ -21957,7 +21966,7 @@
     </row>
     <row r="445" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A445" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B445" s="45">
         <v>267</v>
@@ -21969,10 +21978,10 @@
         <v>63</v>
       </c>
       <c r="E445" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F445" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G445" s="18" t="s">
         <v>41</v>
@@ -21992,7 +22001,7 @@
     </row>
     <row r="446" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A446" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B446" s="45">
         <v>267</v>
@@ -22004,10 +22013,10 @@
         <v>63</v>
       </c>
       <c r="E446" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F446" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G446" s="18" t="s">
         <v>51</v>
@@ -22027,7 +22036,7 @@
     </row>
     <row r="447" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A447" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B447" s="45">
         <v>267</v>
@@ -22039,10 +22048,10 @@
         <v>63</v>
       </c>
       <c r="E447" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F447" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G447" s="18" t="s">
         <v>69</v>
@@ -22062,7 +22071,7 @@
     </row>
     <row r="448" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A448" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B448" s="45">
         <v>267</v>
@@ -22074,10 +22083,10 @@
         <v>63</v>
       </c>
       <c r="E448" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F448" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G448" s="18" t="s">
         <v>51</v>
@@ -22097,7 +22106,7 @@
     </row>
     <row r="449" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A449" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B449" s="45">
         <v>267</v>
@@ -22109,10 +22118,10 @@
         <v>63</v>
       </c>
       <c r="E449" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F449" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G449" s="18" t="s">
         <v>41</v>
@@ -22132,7 +22141,7 @@
     </row>
     <row r="450" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A450" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B450" s="45">
         <v>267</v>
@@ -22144,10 +22153,10 @@
         <v>63</v>
       </c>
       <c r="E450" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F450" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G450" s="18" t="s">
         <v>69</v>
@@ -22167,7 +22176,7 @@
     </row>
     <row r="451" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A451" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B451" s="45">
         <v>267</v>
@@ -22179,10 +22188,10 @@
         <v>63</v>
       </c>
       <c r="E451" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F451" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G451" s="18" t="s">
         <v>41</v>
@@ -22202,7 +22211,7 @@
     </row>
     <row r="452" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A452" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B452" s="45">
         <v>267</v>
@@ -22214,10 +22223,10 @@
         <v>63</v>
       </c>
       <c r="E452" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F452" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G452" s="18" t="s">
         <v>41</v>
@@ -22237,7 +22246,7 @@
     </row>
     <row r="453" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A453" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B453" s="45">
         <v>267</v>
@@ -22249,10 +22258,10 @@
         <v>63</v>
       </c>
       <c r="E453" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F453" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G453" s="18" t="s">
         <v>41</v>
@@ -22272,7 +22281,7 @@
     </row>
     <row r="454" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A454" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B454" s="45">
         <v>267</v>
@@ -22284,10 +22293,10 @@
         <v>63</v>
       </c>
       <c r="E454" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F454" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G454" s="18" t="s">
         <v>188</v>
@@ -22307,7 +22316,7 @@
     </row>
     <row r="455" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A455" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B455" s="45">
         <v>267</v>
@@ -22319,10 +22328,10 @@
         <v>63</v>
       </c>
       <c r="E455" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F455" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G455" s="18" t="s">
         <v>41</v>
@@ -22342,7 +22351,7 @@
     </row>
     <row r="456" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A456" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B456" s="45">
         <v>267</v>
@@ -22354,10 +22363,10 @@
         <v>63</v>
       </c>
       <c r="E456" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F456" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G456" s="18" t="s">
         <v>90</v>
@@ -22377,7 +22386,7 @@
     </row>
     <row r="457" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A457" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B457" s="45">
         <v>267</v>
@@ -22389,10 +22398,10 @@
         <v>63</v>
       </c>
       <c r="E457" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F457" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G457" s="18" t="s">
         <v>188</v>
@@ -22412,7 +22421,7 @@
     </row>
     <row r="458" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A458" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B458" s="45">
         <v>267</v>
@@ -22424,10 +22433,10 @@
         <v>63</v>
       </c>
       <c r="E458" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F458" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G458" s="18" t="s">
         <v>188</v>
@@ -22447,7 +22456,7 @@
     </row>
     <row r="459" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A459" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B459" s="45">
         <v>267</v>
@@ -22459,10 +22468,10 @@
         <v>63</v>
       </c>
       <c r="E459" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F459" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G459" s="18" t="s">
         <v>41</v>
@@ -22482,7 +22491,7 @@
     </row>
     <row r="460" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A460" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B460" s="45">
         <v>267</v>
@@ -22494,10 +22503,10 @@
         <v>91</v>
       </c>
       <c r="E460" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="F460" s="18" t="s">
         <v>534</v>
-      </c>
-      <c r="F460" s="18" t="s">
-        <v>535</v>
       </c>
       <c r="G460" s="18" t="s">
         <v>132</v>
@@ -22517,7 +22526,7 @@
     </row>
     <row r="461" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A461" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B461" s="45">
         <v>267</v>
@@ -22529,10 +22538,10 @@
         <v>91</v>
       </c>
       <c r="E461" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F461" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G461" s="18" t="s">
         <v>61</v>
@@ -22552,7 +22561,7 @@
     </row>
     <row r="462" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A462" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B462" s="45">
         <v>267</v>
@@ -22564,10 +22573,10 @@
         <v>91</v>
       </c>
       <c r="E462" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="F462" s="18" t="s">
         <v>537</v>
-      </c>
-      <c r="F462" s="18" t="s">
-        <v>538</v>
       </c>
       <c r="G462" s="18" t="s">
         <v>61</v>
@@ -22587,7 +22596,7 @@
     </row>
     <row r="463" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A463" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B463" s="45">
         <v>267</v>
@@ -22599,10 +22608,10 @@
         <v>91</v>
       </c>
       <c r="E463" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F463" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G463" s="18" t="s">
         <v>61</v>
@@ -22622,7 +22631,7 @@
     </row>
     <row r="464" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A464" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B464" s="45">
         <v>267</v>
@@ -22634,10 +22643,10 @@
         <v>91</v>
       </c>
       <c r="E464" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F464" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G464" s="18" t="s">
         <v>61</v>
@@ -22657,7 +22666,7 @@
     </row>
     <row r="465" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A465" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B465" s="45">
         <v>267</v>
@@ -22669,10 +22678,10 @@
         <v>91</v>
       </c>
       <c r="E465" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F465" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G465" s="18" t="s">
         <v>41</v>
@@ -22692,7 +22701,7 @@
     </row>
     <row r="466" spans="1:11" s="21" customFormat="1" ht="45">
       <c r="A466" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B466" s="45">
         <v>267</v>
@@ -22704,10 +22713,10 @@
         <v>91</v>
       </c>
       <c r="E466" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F466" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G466" s="18" t="s">
         <v>22</v>
@@ -22727,7 +22736,7 @@
     </row>
     <row r="467" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A467" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B467" s="45">
         <v>267</v>
@@ -22739,10 +22748,10 @@
         <v>91</v>
       </c>
       <c r="E467" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F467" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G467" s="18" t="s">
         <v>22</v>
@@ -22762,7 +22771,7 @@
     </row>
     <row r="468" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A468" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B468" s="45">
         <v>267</v>
@@ -22774,10 +22783,10 @@
         <v>91</v>
       </c>
       <c r="E468" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F468" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G468" s="18" t="s">
         <v>22</v>
@@ -22797,7 +22806,7 @@
     </row>
     <row r="469" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A469" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B469" s="45">
         <v>267</v>
@@ -22809,10 +22818,10 @@
         <v>91</v>
       </c>
       <c r="E469" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="F469" s="18" t="s">
         <v>545</v>
-      </c>
-      <c r="F469" s="18" t="s">
-        <v>546</v>
       </c>
       <c r="G469" s="18" t="s">
         <v>22</v>
@@ -22832,7 +22841,7 @@
     </row>
     <row r="470" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A470" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B470" s="45">
         <v>267</v>
@@ -22844,10 +22853,10 @@
         <v>98</v>
       </c>
       <c r="E470" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="F470" s="18" t="s">
         <v>547</v>
-      </c>
-      <c r="F470" s="18" t="s">
-        <v>548</v>
       </c>
       <c r="G470" s="18" t="s">
         <v>61</v>
@@ -22867,7 +22876,7 @@
     </row>
     <row r="471" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A471" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B471" s="45">
         <v>267</v>
@@ -22879,10 +22888,10 @@
         <v>98</v>
       </c>
       <c r="E471" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F471" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G471" s="18" t="s">
         <v>61</v>
@@ -22902,7 +22911,7 @@
     </row>
     <row r="472" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A472" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B472" s="45">
         <v>267</v>
@@ -22914,10 +22923,10 @@
         <v>98</v>
       </c>
       <c r="E472" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F472" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G472" s="18" t="s">
         <v>61</v>
@@ -22937,7 +22946,7 @@
     </row>
     <row r="473" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A473" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B473" s="45">
         <v>267</v>
@@ -22949,10 +22958,10 @@
         <v>98</v>
       </c>
       <c r="E473" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="F473" s="18" t="s">
         <v>551</v>
-      </c>
-      <c r="F473" s="18" t="s">
-        <v>552</v>
       </c>
       <c r="G473" s="18" t="s">
         <v>61</v>
@@ -22972,7 +22981,7 @@
     </row>
     <row r="474" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A474" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B474" s="45">
         <v>267</v>
@@ -22984,10 +22993,10 @@
         <v>98</v>
       </c>
       <c r="E474" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F474" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G474" s="18" t="s">
         <v>61</v>
@@ -23007,7 +23016,7 @@
     </row>
     <row r="475" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A475" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B475" s="45">
         <v>267</v>
@@ -23019,10 +23028,10 @@
         <v>98</v>
       </c>
       <c r="E475" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F475" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G475" s="18" t="s">
         <v>41</v>
@@ -23042,7 +23051,7 @@
     </row>
     <row r="476" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A476" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B476" s="45">
         <v>267</v>
@@ -23054,10 +23063,10 @@
         <v>98</v>
       </c>
       <c r="E476" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F476" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G476" s="18" t="s">
         <v>34</v>
@@ -23077,7 +23086,7 @@
     </row>
     <row r="477" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A477" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B477" s="45">
         <v>267</v>
@@ -23089,10 +23098,10 @@
         <v>98</v>
       </c>
       <c r="E477" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F477" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G477" s="18" t="s">
         <v>61</v>
@@ -23112,7 +23121,7 @@
     </row>
     <row r="478" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A478" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B478" s="45">
         <v>267</v>
@@ -23124,10 +23133,10 @@
         <v>98</v>
       </c>
       <c r="E478" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F478" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G478" s="18" t="s">
         <v>45</v>
@@ -23147,7 +23156,7 @@
     </row>
     <row r="479" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A479" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B479" s="45">
         <v>267</v>
@@ -23159,10 +23168,10 @@
         <v>98</v>
       </c>
       <c r="E479" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F479" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G479" s="18" t="s">
         <v>61</v>
@@ -23182,7 +23191,7 @@
     </row>
     <row r="480" spans="1:11" s="21" customFormat="1" ht="45">
       <c r="A480" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480" s="45">
         <v>267</v>
@@ -23197,7 +23206,7 @@
         <v>64</v>
       </c>
       <c r="F480" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G480" s="18" t="s">
         <v>22</v>
@@ -23217,7 +23226,7 @@
     </row>
     <row r="481" spans="1:11" s="21" customFormat="1" ht="30">
       <c r="A481" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B481" s="45">
         <v>267</v>
@@ -23232,7 +23241,7 @@
         <v>64</v>
       </c>
       <c r="F481" s="18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G481" s="18" t="s">
         <v>22</v>
@@ -23252,7 +23261,7 @@
     </row>
     <row r="482" spans="1:11" s="21" customFormat="1" ht="15">
       <c r="A482" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B482" s="45">
         <v>267</v>
@@ -23267,7 +23276,7 @@
         <v>64</v>
       </c>
       <c r="F482" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G482" s="18" t="s">
         <v>22</v>
@@ -23287,7 +23296,7 @@
     </row>
     <row r="483" spans="1:11" s="25" customFormat="1" ht="45">
       <c r="A483" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B483" s="46">
         <v>267</v>
@@ -23302,7 +23311,7 @@
         <v>64</v>
       </c>
       <c r="F483" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G483" s="22" t="s">
         <v>22</v>
@@ -23322,7 +23331,7 @@
     </row>
     <row r="484" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A484" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B484" s="47">
         <v>267</v>
@@ -23334,10 +23343,10 @@
         <v>16</v>
       </c>
       <c r="E484" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="F484" s="26" t="s">
         <v>564</v>
-      </c>
-      <c r="F484" s="26" t="s">
-        <v>565</v>
       </c>
       <c r="G484" s="26" t="s">
         <v>22</v>
@@ -23357,7 +23366,7 @@
     </row>
     <row r="485" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A485" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B485" s="47">
         <v>267</v>
@@ -23369,10 +23378,10 @@
         <v>16</v>
       </c>
       <c r="E485" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F485" s="41" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G485" s="26" t="s">
         <v>22</v>
@@ -23392,7 +23401,7 @@
     </row>
     <row r="486" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A486" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B486" s="47">
         <v>267</v>
@@ -23404,10 +23413,10 @@
         <v>16</v>
       </c>
       <c r="E486" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F486" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G486" s="26" t="s">
         <v>22</v>
@@ -23427,7 +23436,7 @@
     </row>
     <row r="487" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A487" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B487" s="47">
         <v>267</v>
@@ -23439,10 +23448,10 @@
         <v>16</v>
       </c>
       <c r="E487" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F487" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G487" s="26" t="s">
         <v>22</v>
@@ -23462,7 +23471,7 @@
     </row>
     <row r="488" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A488" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B488" s="47">
         <v>267</v>
@@ -23474,10 +23483,10 @@
         <v>16</v>
       </c>
       <c r="E488" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F488" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G488" s="26" t="s">
         <v>22</v>
@@ -23497,7 +23506,7 @@
     </row>
     <row r="489" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A489" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B489" s="47">
         <v>267</v>
@@ -23509,10 +23518,10 @@
         <v>16</v>
       </c>
       <c r="E489" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F489" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G489" s="26" t="s">
         <v>22</v>
@@ -23532,7 +23541,7 @@
     </row>
     <row r="490" spans="1:11" s="29" customFormat="1" ht="90">
       <c r="A490" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B490" s="47">
         <v>267</v>
@@ -23544,10 +23553,10 @@
         <v>16</v>
       </c>
       <c r="E490" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F490" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G490" s="69" t="s">
         <v>417</v>
@@ -23567,7 +23576,7 @@
     </row>
     <row r="491" spans="1:11" s="29" customFormat="1" ht="90">
       <c r="A491" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B491" s="47">
         <v>267</v>
@@ -23579,10 +23588,10 @@
         <v>16</v>
       </c>
       <c r="E491" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F491" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G491" s="26" t="s">
         <v>22</v>
@@ -23602,7 +23611,7 @@
     </row>
     <row r="492" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A492" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B492" s="47">
         <v>267</v>
@@ -23614,10 +23623,10 @@
         <v>16</v>
       </c>
       <c r="E492" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F492" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G492" s="69" t="s">
         <v>417</v>
@@ -23637,7 +23646,7 @@
     </row>
     <row r="493" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A493" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B493" s="47">
         <v>267</v>
@@ -23649,10 +23658,10 @@
         <v>16</v>
       </c>
       <c r="E493" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F493" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G493" s="26" t="s">
         <v>22</v>
@@ -23672,7 +23681,7 @@
     </row>
     <row r="494" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A494" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B494" s="47">
         <v>267</v>
@@ -23684,10 +23693,10 @@
         <v>16</v>
       </c>
       <c r="E494" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F494" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G494" s="26" t="s">
         <v>22</v>
@@ -23707,7 +23716,7 @@
     </row>
     <row r="495" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A495" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B495" s="47">
         <v>267</v>
@@ -23719,10 +23728,10 @@
         <v>16</v>
       </c>
       <c r="E495" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F495" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G495" s="26" t="s">
         <v>45</v>
@@ -23742,7 +23751,7 @@
     </row>
     <row r="496" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A496" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B496" s="47">
         <v>267</v>
@@ -23754,10 +23763,10 @@
         <v>63</v>
       </c>
       <c r="E496" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="F496" s="26" t="s">
         <v>577</v>
-      </c>
-      <c r="F496" s="26" t="s">
-        <v>578</v>
       </c>
       <c r="G496" s="26" t="s">
         <v>132</v>
@@ -23777,7 +23786,7 @@
     </row>
     <row r="497" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A497" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B497" s="47">
         <v>267</v>
@@ -23789,10 +23798,10 @@
         <v>63</v>
       </c>
       <c r="E497" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F497" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G497" s="26" t="s">
         <v>361</v>
@@ -23812,7 +23821,7 @@
     </row>
     <row r="498" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A498" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B498" s="47">
         <v>267</v>
@@ -23824,10 +23833,10 @@
         <v>63</v>
       </c>
       <c r="E498" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="F498" s="26" t="s">
         <v>580</v>
-      </c>
-      <c r="F498" s="26" t="s">
-        <v>581</v>
       </c>
       <c r="G498" s="26" t="s">
         <v>41</v>
@@ -23847,7 +23856,7 @@
     </row>
     <row r="499" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A499" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B499" s="47">
         <v>267</v>
@@ -23859,10 +23868,10 @@
         <v>63</v>
       </c>
       <c r="E499" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F499" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G499" s="26" t="s">
         <v>22</v>
@@ -23882,7 +23891,7 @@
     </row>
     <row r="500" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A500" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B500" s="47">
         <v>267</v>
@@ -23894,10 +23903,10 @@
         <v>63</v>
       </c>
       <c r="E500" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F500" s="26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G500" s="26" t="s">
         <v>22</v>
@@ -23917,7 +23926,7 @@
     </row>
     <row r="501" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A501" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B501" s="47">
         <v>267</v>
@@ -23929,10 +23938,10 @@
         <v>63</v>
       </c>
       <c r="E501" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="F501" s="26" t="s">
         <v>584</v>
-      </c>
-      <c r="F501" s="26" t="s">
-        <v>585</v>
       </c>
       <c r="G501" s="26" t="s">
         <v>22</v>
@@ -23952,7 +23961,7 @@
     </row>
     <row r="502" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A502" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B502" s="47">
         <v>267</v>
@@ -23964,10 +23973,10 @@
         <v>63</v>
       </c>
       <c r="E502" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F502" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G502" s="26" t="s">
         <v>22</v>
@@ -23987,7 +23996,7 @@
     </row>
     <row r="503" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A503" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B503" s="47">
         <v>267</v>
@@ -23999,10 +24008,10 @@
         <v>63</v>
       </c>
       <c r="E503" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F503" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G503" s="26" t="s">
         <v>22</v>
@@ -24022,7 +24031,7 @@
     </row>
     <row r="504" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A504" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B504" s="47">
         <v>267</v>
@@ -24034,10 +24043,10 @@
         <v>63</v>
       </c>
       <c r="E504" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F504" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G504" s="26" t="s">
         <v>22</v>
@@ -24057,7 +24066,7 @@
     </row>
     <row r="505" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A505" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B505" s="47">
         <v>267</v>
@@ -24069,10 +24078,10 @@
         <v>91</v>
       </c>
       <c r="E505" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="F505" s="26" t="s">
         <v>589</v>
-      </c>
-      <c r="F505" s="26" t="s">
-        <v>590</v>
       </c>
       <c r="G505" s="26" t="s">
         <v>132</v>
@@ -24092,7 +24101,7 @@
     </row>
     <row r="506" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A506" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B506" s="47">
         <v>267</v>
@@ -24104,10 +24113,10 @@
         <v>91</v>
       </c>
       <c r="E506" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F506" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G506" s="26" t="s">
         <v>61</v>
@@ -24127,7 +24136,7 @@
     </row>
     <row r="507" spans="1:11" s="29" customFormat="1" ht="60">
       <c r="A507" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B507" s="47">
         <v>267</v>
@@ -24139,10 +24148,10 @@
         <v>91</v>
       </c>
       <c r="E507" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F507" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G507" s="26" t="s">
         <v>61</v>
@@ -24162,7 +24171,7 @@
     </row>
     <row r="508" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A508" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B508" s="47">
         <v>267</v>
@@ -24174,10 +24183,10 @@
         <v>91</v>
       </c>
       <c r="E508" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F508" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G508" s="26" t="s">
         <v>45</v>
@@ -24197,7 +24206,7 @@
     </row>
     <row r="509" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A509" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B509" s="47">
         <v>267</v>
@@ -24209,10 +24218,10 @@
         <v>91</v>
       </c>
       <c r="E509" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F509" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G509" s="26" t="s">
         <v>51</v>
@@ -24232,7 +24241,7 @@
     </row>
     <row r="510" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A510" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B510" s="47">
         <v>267</v>
@@ -24244,10 +24253,10 @@
         <v>91</v>
       </c>
       <c r="E510" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F510" s="26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G510" s="26" t="s">
         <v>51</v>
@@ -24267,7 +24276,7 @@
     </row>
     <row r="511" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A511" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B511" s="47">
         <v>267</v>
@@ -24279,13 +24288,13 @@
         <v>91</v>
       </c>
       <c r="E511" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F511" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="G511" s="26" t="s">
         <v>596</v>
-      </c>
-      <c r="G511" s="26" t="s">
-        <v>597</v>
       </c>
       <c r="H511" s="28">
         <v>44154.796527777777</v>
@@ -24302,7 +24311,7 @@
     </row>
     <row r="512" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A512" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B512" s="47">
         <v>267</v>
@@ -24314,10 +24323,10 @@
         <v>91</v>
       </c>
       <c r="E512" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="F512" s="26" t="s">
         <v>598</v>
-      </c>
-      <c r="F512" s="26" t="s">
-        <v>599</v>
       </c>
       <c r="G512" s="26" t="s">
         <v>41</v>
@@ -24337,7 +24346,7 @@
     </row>
     <row r="513" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A513" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B513" s="47">
         <v>267</v>
@@ -24349,10 +24358,10 @@
         <v>91</v>
       </c>
       <c r="E513" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F513" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G513" s="26" t="s">
         <v>22</v>
@@ -24372,7 +24381,7 @@
     </row>
     <row r="514" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A514" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B514" s="47">
         <v>267</v>
@@ -24384,10 +24393,10 @@
         <v>91</v>
       </c>
       <c r="E514" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F514" s="26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G514" s="26" t="s">
         <v>22</v>
@@ -24407,7 +24416,7 @@
     </row>
     <row r="515" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A515" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B515" s="47">
         <v>267</v>
@@ -24419,10 +24428,10 @@
         <v>91</v>
       </c>
       <c r="E515" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F515" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G515" s="26" t="s">
         <v>41</v>
@@ -24442,7 +24451,7 @@
     </row>
     <row r="516" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A516" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B516" s="47">
         <v>267</v>
@@ -24454,10 +24463,10 @@
         <v>91</v>
       </c>
       <c r="E516" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F516" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G516" s="26" t="s">
         <v>22</v>
@@ -24477,7 +24486,7 @@
     </row>
     <row r="517" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A517" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B517" s="47">
         <v>267</v>
@@ -24489,10 +24498,10 @@
         <v>91</v>
       </c>
       <c r="E517" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F517" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G517" s="26" t="s">
         <v>22</v>
@@ -24512,7 +24521,7 @@
     </row>
     <row r="518" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A518" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B518" s="47">
         <v>267</v>
@@ -24524,10 +24533,10 @@
         <v>91</v>
       </c>
       <c r="E518" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F518" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G518" s="26" t="s">
         <v>22</v>
@@ -24547,7 +24556,7 @@
     </row>
     <row r="519" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A519" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B519" s="47">
         <v>267</v>
@@ -24559,10 +24568,10 @@
         <v>91</v>
       </c>
       <c r="E519" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F519" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G519" s="26" t="s">
         <v>22</v>
@@ -24582,7 +24591,7 @@
     </row>
     <row r="520" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A520" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B520" s="47">
         <v>267</v>
@@ -24594,10 +24603,10 @@
         <v>91</v>
       </c>
       <c r="E520" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F520" s="26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G520" s="26" t="s">
         <v>22</v>
@@ -24617,7 +24626,7 @@
     </row>
     <row r="521" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A521" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B521" s="47">
         <v>267</v>
@@ -24629,10 +24638,10 @@
         <v>91</v>
       </c>
       <c r="E521" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F521" s="26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G521" s="26" t="s">
         <v>22</v>
@@ -24652,7 +24661,7 @@
     </row>
     <row r="522" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A522" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B522" s="47">
         <v>267</v>
@@ -24664,10 +24673,10 @@
         <v>91</v>
       </c>
       <c r="E522" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F522" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G522" s="26" t="s">
         <v>41</v>
@@ -24687,7 +24696,7 @@
     </row>
     <row r="523" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A523" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B523" s="47">
         <v>267</v>
@@ -24699,10 +24708,10 @@
         <v>91</v>
       </c>
       <c r="E523" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F523" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G523" s="26" t="s">
         <v>22</v>
@@ -24722,7 +24731,7 @@
     </row>
     <row r="524" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A524" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B524" s="47">
         <v>267</v>
@@ -24734,10 +24743,10 @@
         <v>91</v>
       </c>
       <c r="E524" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F524" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G524" s="26" t="s">
         <v>22</v>
@@ -24757,7 +24766,7 @@
     </row>
     <row r="525" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A525" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B525" s="47">
         <v>267</v>
@@ -24769,10 +24778,10 @@
         <v>91</v>
       </c>
       <c r="E525" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F525" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G525" s="26" t="s">
         <v>22</v>
@@ -24792,7 +24801,7 @@
     </row>
     <row r="526" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A526" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B526" s="47">
         <v>267</v>
@@ -24804,10 +24813,10 @@
         <v>91</v>
       </c>
       <c r="E526" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F526" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G526" s="26" t="s">
         <v>22</v>
@@ -24827,7 +24836,7 @@
     </row>
     <row r="527" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A527" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B527" s="47">
         <v>267</v>
@@ -24839,10 +24848,10 @@
         <v>91</v>
       </c>
       <c r="E527" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F527" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G527" s="26" t="s">
         <v>22</v>
@@ -24862,7 +24871,7 @@
     </row>
     <row r="528" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A528" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B528" s="47">
         <v>267</v>
@@ -24874,10 +24883,10 @@
         <v>91</v>
       </c>
       <c r="E528" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F528" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G528" s="26" t="s">
         <v>22</v>
@@ -24897,7 +24906,7 @@
     </row>
     <row r="529" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A529" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B529" s="47">
         <v>267</v>
@@ -24909,10 +24918,10 @@
         <v>91</v>
       </c>
       <c r="E529" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F529" s="26" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G529" s="26" t="s">
         <v>22</v>
@@ -24932,7 +24941,7 @@
     </row>
     <row r="530" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A530" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B530" s="47">
         <v>267</v>
@@ -24944,10 +24953,10 @@
         <v>91</v>
       </c>
       <c r="E530" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F530" s="26" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G530" s="26" t="s">
         <v>22</v>
@@ -24967,7 +24976,7 @@
     </row>
     <row r="531" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A531" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B531" s="47">
         <v>267</v>
@@ -24979,10 +24988,10 @@
         <v>91</v>
       </c>
       <c r="E531" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F531" s="26" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G531" s="26" t="s">
         <v>41</v>
@@ -25002,7 +25011,7 @@
     </row>
     <row r="532" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A532" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B532" s="47">
         <v>267</v>
@@ -25014,10 +25023,10 @@
         <v>91</v>
       </c>
       <c r="E532" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F532" s="26" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G532" s="26" t="s">
         <v>41</v>
@@ -25037,7 +25046,7 @@
     </row>
     <row r="533" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A533" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B533" s="47">
         <v>267</v>
@@ -25049,10 +25058,10 @@
         <v>91</v>
       </c>
       <c r="E533" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F533" s="26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G533" s="26" t="s">
         <v>22</v>
@@ -25072,7 +25081,7 @@
     </row>
     <row r="534" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A534" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B534" s="47">
         <v>267</v>
@@ -25084,10 +25093,10 @@
         <v>91</v>
       </c>
       <c r="E534" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F534" s="26" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G534" s="26" t="s">
         <v>22</v>
@@ -25107,7 +25116,7 @@
     </row>
     <row r="535" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A535" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B535" s="47">
         <v>267</v>
@@ -25119,10 +25128,10 @@
         <v>91</v>
       </c>
       <c r="E535" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F535" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G535" s="26" t="s">
         <v>22</v>
@@ -25142,7 +25151,7 @@
     </row>
     <row r="536" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A536" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B536" s="47">
         <v>267</v>
@@ -25154,10 +25163,10 @@
         <v>91</v>
       </c>
       <c r="E536" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F536" s="26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G536" s="26" t="s">
         <v>22</v>
@@ -25177,7 +25186,7 @@
     </row>
     <row r="537" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A537" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B537" s="47">
         <v>267</v>
@@ -25189,10 +25198,10 @@
         <v>91</v>
       </c>
       <c r="E537" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F537" s="26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G537" s="26" t="s">
         <v>22</v>
@@ -25212,7 +25221,7 @@
     </row>
     <row r="538" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A538" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B538" s="47">
         <v>267</v>
@@ -25224,10 +25233,10 @@
         <v>91</v>
       </c>
       <c r="E538" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F538" s="26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G538" s="26" t="s">
         <v>22</v>
@@ -25247,7 +25256,7 @@
     </row>
     <row r="539" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A539" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B539" s="47">
         <v>267</v>
@@ -25259,10 +25268,10 @@
         <v>91</v>
       </c>
       <c r="E539" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F539" s="26" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G539" s="26" t="s">
         <v>22</v>
@@ -25282,7 +25291,7 @@
     </row>
     <row r="540" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A540" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B540" s="47">
         <v>267</v>
@@ -25294,10 +25303,10 @@
         <v>91</v>
       </c>
       <c r="E540" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F540" s="26" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G540" s="26" t="s">
         <v>41</v>
@@ -25317,7 +25326,7 @@
     </row>
     <row r="541" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A541" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B541" s="47">
         <v>267</v>
@@ -25329,10 +25338,10 @@
         <v>91</v>
       </c>
       <c r="E541" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F541" s="26" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G541" s="26" t="s">
         <v>41</v>
@@ -25352,7 +25361,7 @@
     </row>
     <row r="542" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A542" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B542" s="47">
         <v>267</v>
@@ -25364,10 +25373,10 @@
         <v>91</v>
       </c>
       <c r="E542" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F542" s="26" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G542" s="26" t="s">
         <v>22</v>
@@ -25387,7 +25396,7 @@
     </row>
     <row r="543" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A543" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B543" s="47">
         <v>267</v>
@@ -25399,10 +25408,10 @@
         <v>91</v>
       </c>
       <c r="E543" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F543" s="26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G543" s="26" t="s">
         <v>22</v>
@@ -25422,7 +25431,7 @@
     </row>
     <row r="544" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A544" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B544" s="47">
         <v>267</v>
@@ -25434,10 +25443,10 @@
         <v>91</v>
       </c>
       <c r="E544" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F544" s="26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G544" s="26" t="s">
         <v>22</v>
@@ -25457,7 +25466,7 @@
     </row>
     <row r="545" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A545" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B545" s="47">
         <v>267</v>
@@ -25469,10 +25478,10 @@
         <v>91</v>
       </c>
       <c r="E545" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F545" s="26" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G545" s="26" t="s">
         <v>22</v>
@@ -25492,7 +25501,7 @@
     </row>
     <row r="546" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A546" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B546" s="47">
         <v>267</v>
@@ -25504,10 +25513,10 @@
         <v>91</v>
       </c>
       <c r="E546" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F546" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G546" s="26" t="s">
         <v>22</v>
@@ -25527,7 +25536,7 @@
     </row>
     <row r="547" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A547" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B547" s="47">
         <v>267</v>
@@ -25539,10 +25548,10 @@
         <v>91</v>
       </c>
       <c r="E547" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F547" s="26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G547" s="26" t="s">
         <v>22</v>
@@ -25562,7 +25571,7 @@
     </row>
     <row r="548" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A548" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B548" s="47">
         <v>267</v>
@@ -25574,10 +25583,10 @@
         <v>91</v>
       </c>
       <c r="E548" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F548" s="26" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G548" s="26" t="s">
         <v>22</v>
@@ -25597,7 +25606,7 @@
     </row>
     <row r="549" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A549" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B549" s="47">
         <v>267</v>
@@ -25609,10 +25618,10 @@
         <v>91</v>
       </c>
       <c r="E549" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F549" s="26" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G549" s="26" t="s">
         <v>41</v>
@@ -25632,7 +25641,7 @@
     </row>
     <row r="550" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A550" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B550" s="47">
         <v>267</v>
@@ -25644,10 +25653,10 @@
         <v>91</v>
       </c>
       <c r="E550" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F550" s="26" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G550" s="26" t="s">
         <v>22</v>
@@ -25667,7 +25676,7 @@
     </row>
     <row r="551" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A551" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B551" s="47">
         <v>267</v>
@@ -25679,10 +25688,10 @@
         <v>91</v>
       </c>
       <c r="E551" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F551" s="26" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G551" s="26" t="s">
         <v>22</v>
@@ -25702,7 +25711,7 @@
     </row>
     <row r="552" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A552" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B552" s="47">
         <v>267</v>
@@ -25714,10 +25723,10 @@
         <v>91</v>
       </c>
       <c r="E552" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F552" s="26" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G552" s="26" t="s">
         <v>22</v>
@@ -25737,7 +25746,7 @@
     </row>
     <row r="553" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A553" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B553" s="47">
         <v>267</v>
@@ -25749,10 +25758,10 @@
         <v>91</v>
       </c>
       <c r="E553" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F553" s="26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G553" s="26" t="s">
         <v>22</v>
@@ -25772,7 +25781,7 @@
     </row>
     <row r="554" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A554" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B554" s="47">
         <v>267</v>
@@ -25784,10 +25793,10 @@
         <v>91</v>
       </c>
       <c r="E554" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F554" s="26" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G554" s="26" t="s">
         <v>41</v>
@@ -25807,7 +25816,7 @@
     </row>
     <row r="555" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A555" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B555" s="47">
         <v>267</v>
@@ -25819,10 +25828,10 @@
         <v>91</v>
       </c>
       <c r="E555" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F555" s="26" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G555" s="69" t="s">
         <v>417</v>
@@ -25842,7 +25851,7 @@
     </row>
     <row r="556" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A556" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B556" s="47">
         <v>267</v>
@@ -25854,10 +25863,10 @@
         <v>91</v>
       </c>
       <c r="E556" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F556" s="26" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G556" s="69" t="s">
         <v>417</v>
@@ -25877,7 +25886,7 @@
     </row>
     <row r="557" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A557" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B557" s="47">
         <v>267</v>
@@ -25889,10 +25898,10 @@
         <v>91</v>
       </c>
       <c r="E557" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F557" s="26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G557" s="69" t="s">
         <v>417</v>
@@ -25912,7 +25921,7 @@
     </row>
     <row r="558" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A558" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B558" s="47">
         <v>267</v>
@@ -25924,10 +25933,10 @@
         <v>91</v>
       </c>
       <c r="E558" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F558" s="26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G558" s="26" t="s">
         <v>41</v>
@@ -25947,7 +25956,7 @@
     </row>
     <row r="559" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A559" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B559" s="47">
         <v>267</v>
@@ -25959,10 +25968,10 @@
         <v>91</v>
       </c>
       <c r="E559" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F559" s="26" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G559" s="26" t="s">
         <v>45</v>
@@ -25982,7 +25991,7 @@
     </row>
     <row r="560" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A560" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B560" s="47">
         <v>267</v>
@@ -25994,10 +26003,10 @@
         <v>91</v>
       </c>
       <c r="E560" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F560" s="26" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G560" s="26" t="s">
         <v>61</v>
@@ -26017,7 +26026,7 @@
     </row>
     <row r="561" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A561" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B561" s="47">
         <v>267</v>
@@ -26029,10 +26038,10 @@
         <v>91</v>
       </c>
       <c r="E561" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F561" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G561" s="26" t="s">
         <v>22</v>
@@ -26052,7 +26061,7 @@
     </row>
     <row r="562" spans="1:11" s="29" customFormat="1" ht="60">
       <c r="A562" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B562" s="47">
         <v>267</v>
@@ -26064,10 +26073,10 @@
         <v>91</v>
       </c>
       <c r="E562" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F562" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G562" s="26" t="s">
         <v>22</v>
@@ -26087,7 +26096,7 @@
     </row>
     <row r="563" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A563" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B563" s="47">
         <v>267</v>
@@ -26099,10 +26108,10 @@
         <v>91</v>
       </c>
       <c r="E563" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F563" s="26" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G563" s="26" t="s">
         <v>22</v>
@@ -26122,7 +26131,7 @@
     </row>
     <row r="564" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A564" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B564" s="47">
         <v>267</v>
@@ -26134,10 +26143,10 @@
         <v>91</v>
       </c>
       <c r="E564" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F564" s="26" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G564" s="26" t="s">
         <v>22</v>
@@ -26157,7 +26166,7 @@
     </row>
     <row r="565" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A565" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B565" s="47">
         <v>267</v>
@@ -26169,10 +26178,10 @@
         <v>91</v>
       </c>
       <c r="E565" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F565" s="26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G565" s="26" t="s">
         <v>22</v>
@@ -26192,7 +26201,7 @@
     </row>
     <row r="566" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A566" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B566" s="47">
         <v>267</v>
@@ -26204,10 +26213,10 @@
         <v>91</v>
       </c>
       <c r="E566" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F566" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G566" s="26" t="s">
         <v>45</v>
@@ -26227,7 +26236,7 @@
     </row>
     <row r="567" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A567" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B567" s="47">
         <v>267</v>
@@ -26239,10 +26248,10 @@
         <v>91</v>
       </c>
       <c r="E567" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F567" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G567" s="26" t="s">
         <v>22</v>
@@ -26262,7 +26271,7 @@
     </row>
     <row r="568" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A568" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B568" s="47">
         <v>267</v>
@@ -26274,10 +26283,10 @@
         <v>91</v>
       </c>
       <c r="E568" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F568" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G568" s="26" t="s">
         <v>22</v>
@@ -26297,7 +26306,7 @@
     </row>
     <row r="569" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A569" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B569" s="47">
         <v>267</v>
@@ -26309,10 +26318,10 @@
         <v>91</v>
       </c>
       <c r="E569" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F569" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G569" s="26" t="s">
         <v>22</v>
@@ -26332,7 +26341,7 @@
     </row>
     <row r="570" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A570" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B570" s="47">
         <v>267</v>
@@ -26344,10 +26353,10 @@
         <v>91</v>
       </c>
       <c r="E570" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F570" s="26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G570" s="26" t="s">
         <v>41</v>
@@ -26367,7 +26376,7 @@
     </row>
     <row r="571" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A571" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B571" s="47">
         <v>267</v>
@@ -26379,10 +26388,10 @@
         <v>91</v>
       </c>
       <c r="E571" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F571" s="26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G571" s="26" t="s">
         <v>41</v>
@@ -26402,7 +26411,7 @@
     </row>
     <row r="572" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A572" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B572" s="47">
         <v>267</v>
@@ -26414,10 +26423,10 @@
         <v>91</v>
       </c>
       <c r="E572" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F572" s="26" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G572" s="26" t="s">
         <v>22</v>
@@ -26437,7 +26446,7 @@
     </row>
     <row r="573" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A573" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B573" s="47">
         <v>267</v>
@@ -26449,10 +26458,10 @@
         <v>91</v>
       </c>
       <c r="E573" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F573" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G573" s="26" t="s">
         <v>22</v>
@@ -26472,7 +26481,7 @@
     </row>
     <row r="574" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A574" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B574" s="47">
         <v>267</v>
@@ -26484,10 +26493,10 @@
         <v>91</v>
       </c>
       <c r="E574" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F574" s="26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G574" s="26" t="s">
         <v>22</v>
@@ -26507,7 +26516,7 @@
     </row>
     <row r="575" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A575" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B575" s="47">
         <v>267</v>
@@ -26519,10 +26528,10 @@
         <v>91</v>
       </c>
       <c r="E575" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F575" s="26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G575" s="26" t="s">
         <v>45</v>
@@ -26542,7 +26551,7 @@
     </row>
     <row r="576" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A576" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B576" s="47">
         <v>267</v>
@@ -26554,10 +26563,10 @@
         <v>91</v>
       </c>
       <c r="E576" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F576" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G576" s="69" t="s">
         <v>417</v>
@@ -26577,7 +26586,7 @@
     </row>
     <row r="577" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A577" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B577" s="47">
         <v>267</v>
@@ -26589,10 +26598,10 @@
         <v>91</v>
       </c>
       <c r="E577" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F577" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G577" s="26" t="s">
         <v>45</v>
@@ -26612,7 +26621,7 @@
     </row>
     <row r="578" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A578" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B578" s="47">
         <v>267</v>
@@ -26624,10 +26633,10 @@
         <v>91</v>
       </c>
       <c r="E578" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F578" s="26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G578" s="26" t="s">
         <v>51</v>
@@ -26647,7 +26656,7 @@
     </row>
     <row r="579" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A579" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B579" s="47">
         <v>267</v>
@@ -26659,10 +26668,10 @@
         <v>91</v>
       </c>
       <c r="E579" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F579" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G579" s="26" t="s">
         <v>51</v>
@@ -26682,7 +26691,7 @@
     </row>
     <row r="580" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A580" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B580" s="47">
         <v>267</v>
@@ -26694,10 +26703,10 @@
         <v>91</v>
       </c>
       <c r="E580" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F580" s="26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G580" s="26" t="s">
         <v>41</v>
@@ -26717,7 +26726,7 @@
     </row>
     <row r="581" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A581" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B581" s="47">
         <v>267</v>
@@ -26729,10 +26738,10 @@
         <v>91</v>
       </c>
       <c r="E581" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F581" s="26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G581" s="26" t="s">
         <v>22</v>
@@ -26752,7 +26761,7 @@
     </row>
     <row r="582" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A582" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B582" s="47">
         <v>267</v>
@@ -26764,10 +26773,10 @@
         <v>91</v>
       </c>
       <c r="E582" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F582" s="26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G582" s="26" t="s">
         <v>41</v>
@@ -26787,7 +26796,7 @@
     </row>
     <row r="583" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A583" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B583" s="47">
         <v>267</v>
@@ -26799,10 +26808,10 @@
         <v>91</v>
       </c>
       <c r="E583" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F583" s="26" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G583" s="69" t="s">
         <v>417</v>
@@ -26822,7 +26831,7 @@
     </row>
     <row r="584" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A584" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B584" s="47">
         <v>267</v>
@@ -26834,10 +26843,10 @@
         <v>91</v>
       </c>
       <c r="E584" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F584" s="26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G584" s="69" t="s">
         <v>417</v>
@@ -26857,7 +26866,7 @@
     </row>
     <row r="585" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A585" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B585" s="47">
         <v>267</v>
@@ -26869,10 +26878,10 @@
         <v>91</v>
       </c>
       <c r="E585" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F585" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G585" s="26" t="s">
         <v>45</v>
@@ -26892,7 +26901,7 @@
     </row>
     <row r="586" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A586" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B586" s="47">
         <v>267</v>
@@ -26904,10 +26913,10 @@
         <v>91</v>
       </c>
       <c r="E586" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F586" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G586" s="69" t="s">
         <v>45</v>
@@ -26927,7 +26936,7 @@
     </row>
     <row r="587" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A587" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B587" s="47">
         <v>267</v>
@@ -26939,10 +26948,10 @@
         <v>91</v>
       </c>
       <c r="E587" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F587" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G587" s="26" t="s">
         <v>22</v>
@@ -26962,7 +26971,7 @@
     </row>
     <row r="588" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A588" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B588" s="47">
         <v>267</v>
@@ -26974,10 +26983,10 @@
         <v>91</v>
       </c>
       <c r="E588" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F588" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G588" s="26" t="s">
         <v>22</v>
@@ -26997,7 +27006,7 @@
     </row>
     <row r="589" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A589" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B589" s="47">
         <v>267</v>
@@ -27009,10 +27018,10 @@
         <v>91</v>
       </c>
       <c r="E589" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F589" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G589" s="26" t="s">
         <v>22</v>
@@ -27032,7 +27041,7 @@
     </row>
     <row r="590" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A590" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B590" s="47">
         <v>267</v>
@@ -27044,10 +27053,10 @@
         <v>91</v>
       </c>
       <c r="E590" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F590" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G590" s="26" t="s">
         <v>22</v>
@@ -27067,7 +27076,7 @@
     </row>
     <row r="591" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A591" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B591" s="47">
         <v>267</v>
@@ -27079,10 +27088,10 @@
         <v>91</v>
       </c>
       <c r="E591" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F591" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G591" s="69" t="s">
         <v>417</v>
@@ -27102,7 +27111,7 @@
     </row>
     <row r="592" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A592" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B592" s="47">
         <v>267</v>
@@ -27114,10 +27123,10 @@
         <v>91</v>
       </c>
       <c r="E592" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F592" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G592" s="26" t="s">
         <v>61</v>
@@ -27137,7 +27146,7 @@
     </row>
     <row r="593" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A593" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B593" s="47">
         <v>267</v>
@@ -27149,10 +27158,10 @@
         <v>91</v>
       </c>
       <c r="E593" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F593" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G593" s="26" t="s">
         <v>22</v>
@@ -27172,7 +27181,7 @@
     </row>
     <row r="594" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A594" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B594" s="47">
         <v>267</v>
@@ -27184,10 +27193,10 @@
         <v>91</v>
       </c>
       <c r="E594" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F594" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G594" s="26" t="s">
         <v>22</v>
@@ -27207,7 +27216,7 @@
     </row>
     <row r="595" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A595" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B595" s="47">
         <v>267</v>
@@ -27219,10 +27228,10 @@
         <v>91</v>
       </c>
       <c r="E595" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F595" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G595" s="26" t="s">
         <v>22</v>
@@ -27242,7 +27251,7 @@
     </row>
     <row r="596" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A596" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B596" s="47">
         <v>267</v>
@@ -27254,10 +27263,10 @@
         <v>91</v>
       </c>
       <c r="E596" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F596" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G596" s="26" t="s">
         <v>41</v>
@@ -27277,7 +27286,7 @@
     </row>
     <row r="597" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A597" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B597" s="47">
         <v>267</v>
@@ -27289,10 +27298,10 @@
         <v>91</v>
       </c>
       <c r="E597" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F597" s="26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G597" s="26" t="s">
         <v>41</v>
@@ -27312,7 +27321,7 @@
     </row>
     <row r="598" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A598" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B598" s="47">
         <v>267</v>
@@ -27324,10 +27333,10 @@
         <v>91</v>
       </c>
       <c r="E598" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F598" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G598" s="26" t="s">
         <v>41</v>
@@ -27347,7 +27356,7 @@
     </row>
     <row r="599" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A599" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B599" s="47">
         <v>267</v>
@@ -27359,10 +27368,10 @@
         <v>91</v>
       </c>
       <c r="E599" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F599" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G599" s="26" t="s">
         <v>41</v>
@@ -27382,7 +27391,7 @@
     </row>
     <row r="600" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A600" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B600" s="47">
         <v>267</v>
@@ -27394,10 +27403,10 @@
         <v>91</v>
       </c>
       <c r="E600" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F600" s="26" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G600" s="26" t="s">
         <v>22</v>
@@ -27417,7 +27426,7 @@
     </row>
     <row r="601" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A601" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B601" s="47">
         <v>267</v>
@@ -27429,10 +27438,10 @@
         <v>91</v>
       </c>
       <c r="E601" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F601" s="26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G601" s="26" t="s">
         <v>22</v>
@@ -27452,7 +27461,7 @@
     </row>
     <row r="602" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A602" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B602" s="47">
         <v>267</v>
@@ -27464,10 +27473,10 @@
         <v>91</v>
       </c>
       <c r="E602" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F602" s="26" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G602" s="26" t="s">
         <v>22</v>
@@ -27487,7 +27496,7 @@
     </row>
     <row r="603" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A603" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B603" s="47">
         <v>267</v>
@@ -27499,10 +27508,10 @@
         <v>91</v>
       </c>
       <c r="E603" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F603" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G603" s="26" t="s">
         <v>22</v>
@@ -27522,7 +27531,7 @@
     </row>
     <row r="604" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A604" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B604" s="47">
         <v>267</v>
@@ -27534,10 +27543,10 @@
         <v>91</v>
       </c>
       <c r="E604" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F604" s="26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G604" s="26" t="s">
         <v>41</v>
@@ -27557,7 +27566,7 @@
     </row>
     <row r="605" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A605" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B605" s="47">
         <v>267</v>
@@ -27569,10 +27578,10 @@
         <v>91</v>
       </c>
       <c r="E605" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F605" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G605" s="26" t="s">
         <v>22</v>
@@ -27592,7 +27601,7 @@
     </row>
     <row r="606" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A606" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B606" s="47">
         <v>267</v>
@@ -27604,10 +27613,10 @@
         <v>91</v>
       </c>
       <c r="E606" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F606" s="26" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G606" s="26" t="s">
         <v>22</v>
@@ -27627,7 +27636,7 @@
     </row>
     <row r="607" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A607" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B607" s="47">
         <v>267</v>
@@ -27639,10 +27648,10 @@
         <v>91</v>
       </c>
       <c r="E607" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F607" s="26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G607" s="26" t="s">
         <v>22</v>
@@ -27662,7 +27671,7 @@
     </row>
     <row r="608" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A608" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B608" s="47">
         <v>267</v>
@@ -27674,10 +27683,10 @@
         <v>91</v>
       </c>
       <c r="E608" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F608" s="26" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G608" s="26" t="s">
         <v>41</v>
@@ -27697,7 +27706,7 @@
     </row>
     <row r="609" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A609" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B609" s="47">
         <v>267</v>
@@ -27709,10 +27718,10 @@
         <v>91</v>
       </c>
       <c r="E609" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F609" s="26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G609" s="26" t="s">
         <v>22</v>
@@ -27732,7 +27741,7 @@
     </row>
     <row r="610" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A610" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B610" s="47">
         <v>267</v>
@@ -27744,10 +27753,10 @@
         <v>91</v>
       </c>
       <c r="E610" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F610" s="26" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G610" s="26" t="s">
         <v>61</v>
@@ -27767,7 +27776,7 @@
     </row>
     <row r="611" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A611" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B611" s="47">
         <v>267</v>
@@ -27779,10 +27788,10 @@
         <v>91</v>
       </c>
       <c r="E611" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F611" s="26" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G611" s="26" t="s">
         <v>22</v>
@@ -27802,7 +27811,7 @@
     </row>
     <row r="612" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A612" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B612" s="47">
         <v>267</v>
@@ -27814,10 +27823,10 @@
         <v>91</v>
       </c>
       <c r="E612" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F612" s="26" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G612" s="26" t="s">
         <v>22</v>
@@ -27837,7 +27846,7 @@
     </row>
     <row r="613" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A613" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B613" s="47">
         <v>267</v>
@@ -27849,10 +27858,10 @@
         <v>91</v>
       </c>
       <c r="E613" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F613" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G613" s="26" t="s">
         <v>22</v>
@@ -27872,7 +27881,7 @@
     </row>
     <row r="614" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A614" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B614" s="47">
         <v>267</v>
@@ -27884,10 +27893,10 @@
         <v>91</v>
       </c>
       <c r="E614" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F614" s="26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G614" s="26" t="s">
         <v>22</v>
@@ -27907,7 +27916,7 @@
     </row>
     <row r="615" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A615" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B615" s="47">
         <v>267</v>
@@ -27919,10 +27928,10 @@
         <v>91</v>
       </c>
       <c r="E615" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F615" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G615" s="26" t="s">
         <v>22</v>
@@ -27942,7 +27951,7 @@
     </row>
     <row r="616" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A616" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B616" s="47">
         <v>267</v>
@@ -27954,10 +27963,10 @@
         <v>91</v>
       </c>
       <c r="E616" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F616" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G616" s="26" t="s">
         <v>22</v>
@@ -27977,7 +27986,7 @@
     </row>
     <row r="617" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A617" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B617" s="47">
         <v>267</v>
@@ -27989,10 +27998,10 @@
         <v>91</v>
       </c>
       <c r="E617" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F617" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G617" s="26" t="s">
         <v>41</v>
@@ -28012,7 +28021,7 @@
     </row>
     <row r="618" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A618" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B618" s="47">
         <v>267</v>
@@ -28024,10 +28033,10 @@
         <v>91</v>
       </c>
       <c r="E618" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F618" s="26" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G618" s="26" t="s">
         <v>41</v>
@@ -28047,7 +28056,7 @@
     </row>
     <row r="619" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A619" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B619" s="47">
         <v>267</v>
@@ -28059,10 +28068,10 @@
         <v>91</v>
       </c>
       <c r="E619" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F619" s="26" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G619" s="26" t="s">
         <v>41</v>
@@ -28082,7 +28091,7 @@
     </row>
     <row r="620" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A620" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B620" s="47">
         <v>267</v>
@@ -28094,10 +28103,10 @@
         <v>91</v>
       </c>
       <c r="E620" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F620" s="26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G620" s="26" t="s">
         <v>19</v>
@@ -28117,7 +28126,7 @@
     </row>
     <row r="621" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A621" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B621" s="47">
         <v>267</v>
@@ -28129,10 +28138,10 @@
         <v>91</v>
       </c>
       <c r="E621" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F621" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G621" s="69" t="s">
         <v>45</v>
@@ -28152,7 +28161,7 @@
     </row>
     <row r="622" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A622" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B622" s="47">
         <v>267</v>
@@ -28164,10 +28173,10 @@
         <v>91</v>
       </c>
       <c r="E622" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F622" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G622" s="26" t="s">
         <v>51</v>
@@ -28187,7 +28196,7 @@
     </row>
     <row r="623" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A623" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B623" s="47">
         <v>267</v>
@@ -28199,10 +28208,10 @@
         <v>91</v>
       </c>
       <c r="E623" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F623" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G623" s="26" t="s">
         <v>61</v>
@@ -28222,7 +28231,7 @@
     </row>
     <row r="624" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A624" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B624" s="47">
         <v>267</v>
@@ -28234,10 +28243,10 @@
         <v>91</v>
       </c>
       <c r="E624" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F624" s="26" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G624" s="26" t="s">
         <v>41</v>
@@ -28257,7 +28266,7 @@
     </row>
     <row r="625" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A625" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B625" s="47">
         <v>267</v>
@@ -28269,10 +28278,10 @@
         <v>91</v>
       </c>
       <c r="E625" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F625" s="26" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G625" s="26" t="s">
         <v>41</v>
@@ -28292,7 +28301,7 @@
     </row>
     <row r="626" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A626" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B626" s="47">
         <v>267</v>
@@ -28304,10 +28313,10 @@
         <v>91</v>
       </c>
       <c r="E626" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F626" s="26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G626" s="26" t="s">
         <v>61</v>
@@ -28327,7 +28336,7 @@
     </row>
     <row r="627" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A627" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B627" s="47">
         <v>267</v>
@@ -28339,10 +28348,10 @@
         <v>91</v>
       </c>
       <c r="E627" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F627" s="26" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G627" s="26" t="s">
         <v>51</v>
@@ -28362,7 +28371,7 @@
     </row>
     <row r="628" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A628" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B628" s="47">
         <v>267</v>
@@ -28374,10 +28383,10 @@
         <v>91</v>
       </c>
       <c r="E628" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F628" s="26" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G628" s="26" t="s">
         <v>45</v>
@@ -28397,7 +28406,7 @@
     </row>
     <row r="629" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A629" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B629" s="47">
         <v>267</v>
@@ -28409,10 +28418,10 @@
         <v>91</v>
       </c>
       <c r="E629" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F629" s="26" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G629" s="26" t="s">
         <v>45</v>
@@ -28432,7 +28441,7 @@
     </row>
     <row r="630" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A630" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B630" s="47">
         <v>267</v>
@@ -28444,10 +28453,10 @@
         <v>91</v>
       </c>
       <c r="E630" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F630" s="26" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G630" s="69" t="s">
         <v>45</v>
@@ -28467,7 +28476,7 @@
     </row>
     <row r="631" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A631" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B631" s="47">
         <v>267</v>
@@ -28479,10 +28488,10 @@
         <v>91</v>
       </c>
       <c r="E631" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F631" s="26" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G631" s="26" t="s">
         <v>41</v>
@@ -28502,7 +28511,7 @@
     </row>
     <row r="632" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A632" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B632" s="47">
         <v>267</v>
@@ -28514,10 +28523,10 @@
         <v>91</v>
       </c>
       <c r="E632" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F632" s="26" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G632" s="69" t="s">
         <v>45</v>
@@ -28537,7 +28546,7 @@
     </row>
     <row r="633" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A633" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B633" s="47">
         <v>267</v>
@@ -28549,10 +28558,10 @@
         <v>91</v>
       </c>
       <c r="E633" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F633" s="26" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G633" s="69" t="s">
         <v>45</v>
@@ -28572,7 +28581,7 @@
     </row>
     <row r="634" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A634" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B634" s="47">
         <v>267</v>
@@ -28584,10 +28593,10 @@
         <v>91</v>
       </c>
       <c r="E634" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F634" s="26" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G634" s="69" t="s">
         <v>45</v>
@@ -28607,7 +28616,7 @@
     </row>
     <row r="635" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A635" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B635" s="47">
         <v>267</v>
@@ -28619,10 +28628,10 @@
         <v>91</v>
       </c>
       <c r="E635" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F635" s="26" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G635" s="26" t="s">
         <v>41</v>
@@ -28642,7 +28651,7 @@
     </row>
     <row r="636" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A636" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B636" s="47">
         <v>267</v>
@@ -28654,10 +28663,10 @@
         <v>91</v>
       </c>
       <c r="E636" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F636" s="26" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G636" s="69" t="s">
         <v>417</v>
@@ -28677,7 +28686,7 @@
     </row>
     <row r="637" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A637" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B637" s="47">
         <v>267</v>
@@ -28689,10 +28698,10 @@
         <v>91</v>
       </c>
       <c r="E637" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F637" s="26" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G637" s="26" t="s">
         <v>41</v>
@@ -28712,7 +28721,7 @@
     </row>
     <row r="638" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A638" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B638" s="47">
         <v>267</v>
@@ -28724,10 +28733,10 @@
         <v>91</v>
       </c>
       <c r="E638" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F638" s="26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G638" s="69" t="s">
         <v>45</v>
@@ -28747,7 +28756,7 @@
     </row>
     <row r="639" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A639" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B639" s="47">
         <v>267</v>
@@ -28759,10 +28768,10 @@
         <v>91</v>
       </c>
       <c r="E639" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F639" s="26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G639" s="69" t="s">
         <v>45</v>
@@ -28782,7 +28791,7 @@
     </row>
     <row r="640" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A640" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B640" s="47">
         <v>267</v>
@@ -28794,10 +28803,10 @@
         <v>91</v>
       </c>
       <c r="E640" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F640" s="26" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G640" s="69" t="s">
         <v>45</v>
@@ -28817,7 +28826,7 @@
     </row>
     <row r="641" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A641" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B641" s="47">
         <v>267</v>
@@ -28829,10 +28838,10 @@
         <v>91</v>
       </c>
       <c r="E641" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F641" s="26" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G641" s="69" t="s">
         <v>188</v>
@@ -28852,7 +28861,7 @@
     </row>
     <row r="642" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A642" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B642" s="47">
         <v>267</v>
@@ -28864,10 +28873,10 @@
         <v>91</v>
       </c>
       <c r="E642" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F642" s="26" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G642" s="69" t="s">
         <v>417</v>
@@ -28887,7 +28896,7 @@
     </row>
     <row r="643" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A643" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B643" s="47">
         <v>267</v>
@@ -28899,10 +28908,10 @@
         <v>91</v>
       </c>
       <c r="E643" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F643" s="26" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G643" s="69" t="s">
         <v>45</v>
@@ -28922,7 +28931,7 @@
     </row>
     <row r="644" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A644" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B644" s="47">
         <v>267</v>
@@ -28934,10 +28943,10 @@
         <v>91</v>
       </c>
       <c r="E644" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F644" s="26" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G644" s="26" t="s">
         <v>41</v>
@@ -28957,7 +28966,7 @@
     </row>
     <row r="645" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A645" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B645" s="47">
         <v>267</v>
@@ -28969,10 +28978,10 @@
         <v>91</v>
       </c>
       <c r="E645" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F645" s="26" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G645" s="69" t="s">
         <v>45</v>
@@ -28992,7 +29001,7 @@
     </row>
     <row r="646" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A646" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B646" s="47">
         <v>267</v>
@@ -29004,10 +29013,10 @@
         <v>91</v>
       </c>
       <c r="E646" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F646" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G646" s="26" t="s">
         <v>61</v>
@@ -29027,7 +29036,7 @@
     </row>
     <row r="647" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A647" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B647" s="47">
         <v>267</v>
@@ -29039,10 +29048,10 @@
         <v>91</v>
       </c>
       <c r="E647" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F647" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G647" s="26" t="s">
         <v>61</v>
@@ -29062,7 +29071,7 @@
     </row>
     <row r="648" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A648" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B648" s="47">
         <v>267</v>
@@ -29074,10 +29083,10 @@
         <v>91</v>
       </c>
       <c r="E648" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F648" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G648" s="26" t="s">
         <v>61</v>
@@ -29097,7 +29106,7 @@
     </row>
     <row r="649" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A649" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B649" s="47">
         <v>267</v>
@@ -29109,10 +29118,10 @@
         <v>91</v>
       </c>
       <c r="E649" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F649" s="26" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G649" s="26" t="s">
         <v>61</v>
@@ -29132,7 +29141,7 @@
     </row>
     <row r="650" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A650" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B650" s="47">
         <v>267</v>
@@ -29144,10 +29153,10 @@
         <v>91</v>
       </c>
       <c r="E650" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F650" s="26" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G650" s="26" t="s">
         <v>61</v>
@@ -29167,7 +29176,7 @@
     </row>
     <row r="651" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A651" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B651" s="47">
         <v>267</v>
@@ -29179,10 +29188,10 @@
         <v>91</v>
       </c>
       <c r="E651" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F651" s="26" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G651" s="26" t="s">
         <v>45</v>
@@ -29202,7 +29211,7 @@
     </row>
     <row r="652" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A652" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B652" s="47">
         <v>267</v>
@@ -29214,10 +29223,10 @@
         <v>91</v>
       </c>
       <c r="E652" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F652" s="26" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G652" s="26" t="s">
         <v>45</v>
@@ -29237,7 +29246,7 @@
     </row>
     <row r="653" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A653" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B653" s="47">
         <v>267</v>
@@ -29249,10 +29258,10 @@
         <v>91</v>
       </c>
       <c r="E653" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F653" s="26" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G653" s="26" t="s">
         <v>41</v>
@@ -29272,7 +29281,7 @@
     </row>
     <row r="654" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A654" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B654" s="47">
         <v>267</v>
@@ -29284,10 +29293,10 @@
         <v>91</v>
       </c>
       <c r="E654" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F654" s="26" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G654" s="26" t="s">
         <v>41</v>
@@ -29307,7 +29316,7 @@
     </row>
     <row r="655" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A655" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B655" s="47">
         <v>267</v>
@@ -29319,10 +29328,10 @@
         <v>91</v>
       </c>
       <c r="E655" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F655" s="26" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G655" s="26" t="s">
         <v>45</v>
@@ -29342,7 +29351,7 @@
     </row>
     <row r="656" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A656" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B656" s="47">
         <v>267</v>
@@ -29354,10 +29363,10 @@
         <v>91</v>
       </c>
       <c r="E656" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F656" s="26" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G656" s="26" t="s">
         <v>61</v>
@@ -29377,7 +29386,7 @@
     </row>
     <row r="657" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A657" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B657" s="47">
         <v>267</v>
@@ -29389,10 +29398,10 @@
         <v>91</v>
       </c>
       <c r="E657" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F657" s="26" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G657" s="26" t="s">
         <v>41</v>
@@ -29412,7 +29421,7 @@
     </row>
     <row r="658" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A658" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B658" s="47">
         <v>267</v>
@@ -29424,10 +29433,10 @@
         <v>91</v>
       </c>
       <c r="E658" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F658" s="26" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G658" s="26" t="s">
         <v>45</v>
@@ -29447,7 +29456,7 @@
     </row>
     <row r="659" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A659" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B659" s="47">
         <v>267</v>
@@ -29459,10 +29468,10 @@
         <v>91</v>
       </c>
       <c r="E659" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F659" s="26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G659" s="26" t="s">
         <v>51</v>
@@ -29482,7 +29491,7 @@
     </row>
     <row r="660" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A660" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B660" s="47">
         <v>267</v>
@@ -29494,10 +29503,10 @@
         <v>91</v>
       </c>
       <c r="E660" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F660" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G660" s="26" t="s">
         <v>61</v>
@@ -29517,7 +29526,7 @@
     </row>
     <row r="661" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A661" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B661" s="47">
         <v>267</v>
@@ -29529,10 +29538,10 @@
         <v>91</v>
       </c>
       <c r="E661" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F661" s="26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G661" s="26" t="s">
         <v>61</v>
@@ -29552,7 +29561,7 @@
     </row>
     <row r="662" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A662" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B662" s="47">
         <v>267</v>
@@ -29564,10 +29573,10 @@
         <v>91</v>
       </c>
       <c r="E662" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F662" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G662" s="26" t="s">
         <v>51</v>
@@ -29587,7 +29596,7 @@
     </row>
     <row r="663" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A663" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B663" s="47">
         <v>267</v>
@@ -29599,10 +29608,10 @@
         <v>91</v>
       </c>
       <c r="E663" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F663" s="26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G663" s="26" t="s">
         <v>51</v>
@@ -29622,7 +29631,7 @@
     </row>
     <row r="664" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A664" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B664" s="47">
         <v>267</v>
@@ -29634,10 +29643,10 @@
         <v>91</v>
       </c>
       <c r="E664" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F664" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G664" s="26" t="s">
         <v>61</v>
@@ -29657,7 +29666,7 @@
     </row>
     <row r="665" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A665" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B665" s="47">
         <v>267</v>
@@ -29669,10 +29678,10 @@
         <v>91</v>
       </c>
       <c r="E665" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F665" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G665" s="26" t="s">
         <v>41</v>
@@ -29692,7 +29701,7 @@
     </row>
     <row r="666" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A666" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B666" s="47">
         <v>267</v>
@@ -29704,10 +29713,10 @@
         <v>91</v>
       </c>
       <c r="E666" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F666" s="26" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G666" s="26" t="s">
         <v>41</v>
@@ -29727,7 +29736,7 @@
     </row>
     <row r="667" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A667" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B667" s="47">
         <v>267</v>
@@ -29739,10 +29748,10 @@
         <v>91</v>
       </c>
       <c r="E667" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F667" s="26" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G667" s="26" t="s">
         <v>51</v>
@@ -29762,7 +29771,7 @@
     </row>
     <row r="668" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A668" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B668" s="47">
         <v>267</v>
@@ -29774,10 +29783,10 @@
         <v>91</v>
       </c>
       <c r="E668" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F668" s="26" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G668" s="26" t="s">
         <v>51</v>
@@ -29797,7 +29806,7 @@
     </row>
     <row r="669" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A669" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B669" s="47">
         <v>267</v>
@@ -29809,10 +29818,10 @@
         <v>91</v>
       </c>
       <c r="E669" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F669" s="26" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G669" s="26" t="s">
         <v>51</v>
@@ -29832,7 +29841,7 @@
     </row>
     <row r="670" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A670" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B670" s="47">
         <v>267</v>
@@ -29844,10 +29853,10 @@
         <v>91</v>
       </c>
       <c r="E670" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F670" s="26" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G670" s="26" t="s">
         <v>41</v>
@@ -29867,7 +29876,7 @@
     </row>
     <row r="671" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A671" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B671" s="47">
         <v>267</v>
@@ -29879,10 +29888,10 @@
         <v>91</v>
       </c>
       <c r="E671" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F671" s="26" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G671" s="26" t="s">
         <v>41</v>
@@ -29902,7 +29911,7 @@
     </row>
     <row r="672" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A672" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B672" s="47">
         <v>267</v>
@@ -29914,10 +29923,10 @@
         <v>91</v>
       </c>
       <c r="E672" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F672" s="26" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G672" s="26" t="s">
         <v>61</v>
@@ -29937,7 +29946,7 @@
     </row>
     <row r="673" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A673" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B673" s="47">
         <v>267</v>
@@ -29949,10 +29958,10 @@
         <v>91</v>
       </c>
       <c r="E673" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F673" s="26" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G673" s="26" t="s">
         <v>51</v>
@@ -29972,7 +29981,7 @@
     </row>
     <row r="674" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A674" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B674" s="47">
         <v>267</v>
@@ -29984,10 +29993,10 @@
         <v>91</v>
       </c>
       <c r="E674" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F674" s="26" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G674" s="26" t="s">
         <v>51</v>
@@ -30007,7 +30016,7 @@
     </row>
     <row r="675" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A675" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B675" s="47">
         <v>267</v>
@@ -30019,10 +30028,10 @@
         <v>91</v>
       </c>
       <c r="E675" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F675" s="26" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G675" s="26" t="s">
         <v>41</v>
@@ -30042,7 +30051,7 @@
     </row>
     <row r="676" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A676" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B676" s="47">
         <v>267</v>
@@ -30054,10 +30063,10 @@
         <v>91</v>
       </c>
       <c r="E676" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F676" s="26" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G676" s="26" t="s">
         <v>45</v>
@@ -30077,7 +30086,7 @@
     </row>
     <row r="677" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A677" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B677" s="47">
         <v>267</v>
@@ -30089,10 +30098,10 @@
         <v>91</v>
       </c>
       <c r="E677" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F677" s="26" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G677" s="26" t="s">
         <v>51</v>
@@ -30112,7 +30121,7 @@
     </row>
     <row r="678" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A678" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B678" s="47">
         <v>267</v>
@@ -30124,10 +30133,10 @@
         <v>91</v>
       </c>
       <c r="E678" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F678" s="26" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G678" s="26" t="s">
         <v>51</v>
@@ -30147,7 +30156,7 @@
     </row>
     <row r="679" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A679" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B679" s="47">
         <v>267</v>
@@ -30159,10 +30168,10 @@
         <v>91</v>
       </c>
       <c r="E679" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F679" s="26" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G679" s="26" t="s">
         <v>51</v>
@@ -30182,7 +30191,7 @@
     </row>
     <row r="680" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A680" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B680" s="47">
         <v>267</v>
@@ -30194,10 +30203,10 @@
         <v>91</v>
       </c>
       <c r="E680" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F680" s="26" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G680" s="26" t="s">
         <v>51</v>
@@ -30217,7 +30226,7 @@
     </row>
     <row r="681" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A681" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B681" s="47">
         <v>267</v>
@@ -30229,10 +30238,10 @@
         <v>91</v>
       </c>
       <c r="E681" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F681" s="26" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G681" s="26" t="s">
         <v>61</v>
@@ -30252,7 +30261,7 @@
     </row>
     <row r="682" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A682" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B682" s="47">
         <v>267</v>
@@ -30264,10 +30273,10 @@
         <v>91</v>
       </c>
       <c r="E682" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F682" s="26" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G682" s="26" t="s">
         <v>51</v>
@@ -30287,7 +30296,7 @@
     </row>
     <row r="683" spans="1:11" s="29" customFormat="1" ht="60">
       <c r="A683" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B683" s="47">
         <v>267</v>
@@ -30299,10 +30308,10 @@
         <v>91</v>
       </c>
       <c r="E683" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F683" s="26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G683" s="26" t="s">
         <v>51</v>
@@ -30322,7 +30331,7 @@
     </row>
     <row r="684" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A684" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B684" s="47">
         <v>267</v>
@@ -30334,10 +30343,10 @@
         <v>91</v>
       </c>
       <c r="E684" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F684" s="26" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G684" s="26" t="s">
         <v>61</v>
@@ -30357,7 +30366,7 @@
     </row>
     <row r="685" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A685" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B685" s="47">
         <v>267</v>
@@ -30369,10 +30378,10 @@
         <v>91</v>
       </c>
       <c r="E685" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F685" s="26" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G685" s="26" t="s">
         <v>61</v>
@@ -30392,7 +30401,7 @@
     </row>
     <row r="686" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A686" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B686" s="47">
         <v>267</v>
@@ -30404,10 +30413,10 @@
         <v>91</v>
       </c>
       <c r="E686" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F686" s="26" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G686" s="26" t="s">
         <v>41</v>
@@ -30427,7 +30436,7 @@
     </row>
     <row r="687" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A687" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B687" s="47">
         <v>267</v>
@@ -30439,10 +30448,10 @@
         <v>91</v>
       </c>
       <c r="E687" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F687" s="26" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G687" s="26" t="s">
         <v>51</v>
@@ -30462,7 +30471,7 @@
     </row>
     <row r="688" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A688" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B688" s="47">
         <v>267</v>
@@ -30474,10 +30483,10 @@
         <v>91</v>
       </c>
       <c r="E688" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F688" s="26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G688" s="26" t="s">
         <v>45</v>
@@ -30497,7 +30506,7 @@
     </row>
     <row r="689" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A689" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B689" s="47">
         <v>267</v>
@@ -30509,10 +30518,10 @@
         <v>91</v>
       </c>
       <c r="E689" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F689" s="26" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G689" s="26" t="s">
         <v>61</v>
@@ -30532,7 +30541,7 @@
     </row>
     <row r="690" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A690" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B690" s="47">
         <v>267</v>
@@ -30544,10 +30553,10 @@
         <v>91</v>
       </c>
       <c r="E690" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F690" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G690" s="26" t="s">
         <v>61</v>
@@ -30567,7 +30576,7 @@
     </row>
     <row r="691" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A691" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B691" s="47">
         <v>267</v>
@@ -30579,10 +30588,10 @@
         <v>91</v>
       </c>
       <c r="E691" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F691" s="26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G691" s="26" t="s">
         <v>61</v>
@@ -30602,7 +30611,7 @@
     </row>
     <row r="692" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A692" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B692" s="47">
         <v>267</v>
@@ -30614,10 +30623,10 @@
         <v>91</v>
       </c>
       <c r="E692" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F692" s="26" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G692" s="26" t="s">
         <v>41</v>
@@ -30637,7 +30646,7 @@
     </row>
     <row r="693" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A693" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B693" s="47">
         <v>267</v>
@@ -30649,10 +30658,10 @@
         <v>91</v>
       </c>
       <c r="E693" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F693" s="26" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G693" s="26" t="s">
         <v>61</v>
@@ -30672,7 +30681,7 @@
     </row>
     <row r="694" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A694" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B694" s="47">
         <v>267</v>
@@ -30684,10 +30693,10 @@
         <v>91</v>
       </c>
       <c r="E694" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F694" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G694" s="26" t="s">
         <v>61</v>
@@ -30707,7 +30716,7 @@
     </row>
     <row r="695" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A695" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B695" s="47">
         <v>267</v>
@@ -30719,10 +30728,10 @@
         <v>91</v>
       </c>
       <c r="E695" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F695" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G695" s="26" t="s">
         <v>45</v>
@@ -30742,7 +30751,7 @@
     </row>
     <row r="696" spans="1:11" s="29" customFormat="1" ht="30">
       <c r="A696" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B696" s="47">
         <v>267</v>
@@ -30754,10 +30763,10 @@
         <v>91</v>
       </c>
       <c r="E696" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F696" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G696" s="69" t="s">
         <v>45</v>
@@ -30777,7 +30786,7 @@
     </row>
     <row r="697" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A697" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B697" s="47">
         <v>267</v>
@@ -30789,10 +30798,10 @@
         <v>91</v>
       </c>
       <c r="E697" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F697" s="26" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G697" s="26" t="s">
         <v>61</v>
@@ -30812,7 +30821,7 @@
     </row>
     <row r="698" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A698" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B698" s="47">
         <v>267</v>
@@ -30824,10 +30833,10 @@
         <v>91</v>
       </c>
       <c r="E698" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F698" s="26" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G698" s="26" t="s">
         <v>61</v>
@@ -30847,7 +30856,7 @@
     </row>
     <row r="699" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A699" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B699" s="47">
         <v>267</v>
@@ -30859,10 +30868,10 @@
         <v>91</v>
       </c>
       <c r="E699" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F699" s="26" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G699" s="26" t="s">
         <v>61</v>
@@ -30882,7 +30891,7 @@
     </row>
     <row r="700" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A700" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B700" s="47">
         <v>267</v>
@@ -30894,10 +30903,10 @@
         <v>91</v>
       </c>
       <c r="E700" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F700" s="26" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G700" s="26" t="s">
         <v>61</v>
@@ -30917,7 +30926,7 @@
     </row>
     <row r="701" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A701" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B701" s="47">
         <v>267</v>
@@ -30929,10 +30938,10 @@
         <v>91</v>
       </c>
       <c r="E701" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F701" s="26" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G701" s="26" t="s">
         <v>41</v>
@@ -30952,7 +30961,7 @@
     </row>
     <row r="702" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A702" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B702" s="47">
         <v>267</v>
@@ -30964,10 +30973,10 @@
         <v>91</v>
       </c>
       <c r="E702" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F702" s="26" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G702" s="26" t="s">
         <v>61</v>
@@ -30987,7 +30996,7 @@
     </row>
     <row r="703" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A703" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B703" s="47">
         <v>267</v>
@@ -30999,10 +31008,10 @@
         <v>91</v>
       </c>
       <c r="E703" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F703" s="26" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G703" s="26" t="s">
         <v>45</v>
@@ -31022,7 +31031,7 @@
     </row>
     <row r="704" spans="1:11" s="29" customFormat="1" ht="60">
       <c r="A704" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B704" s="47">
         <v>267</v>
@@ -31034,10 +31043,10 @@
         <v>91</v>
       </c>
       <c r="E704" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F704" s="26" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G704" s="26" t="s">
         <v>45</v>
@@ -31057,7 +31066,7 @@
     </row>
     <row r="705" spans="1:11" s="29" customFormat="1" ht="45">
       <c r="A705" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B705" s="47">
         <v>267</v>
@@ -31069,10 +31078,10 @@
         <v>91</v>
       </c>
       <c r="E705" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F705" s="26" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G705" s="26" t="s">
         <v>45</v>
@@ -31092,7 +31101,7 @@
     </row>
     <row r="706" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A706" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B706" s="47">
         <v>267</v>
@@ -31104,10 +31113,10 @@
         <v>91</v>
       </c>
       <c r="E706" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F706" s="26" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G706" s="26" t="s">
         <v>61</v>
@@ -31127,7 +31136,7 @@
     </row>
     <row r="707" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A707" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B707" s="47">
         <v>267</v>
@@ -31139,10 +31148,10 @@
         <v>91</v>
       </c>
       <c r="E707" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F707" s="26" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G707" s="26" t="s">
         <v>45</v>
@@ -31162,7 +31171,7 @@
     </row>
     <row r="708" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A708" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B708" s="47">
         <v>267</v>
@@ -31174,10 +31183,10 @@
         <v>91</v>
       </c>
       <c r="E708" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F708" s="26" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G708" s="26" t="s">
         <v>45</v>
@@ -31197,7 +31206,7 @@
     </row>
     <row r="709" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A709" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B709" s="47">
         <v>267</v>
@@ -31209,13 +31218,13 @@
         <v>91</v>
       </c>
       <c r="E709" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F709" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="G709" s="26" t="s">
         <v>793</v>
-      </c>
-      <c r="G709" s="26" t="s">
-        <v>794</v>
       </c>
       <c r="H709" s="28">
         <v>44154.837500000001</v>
@@ -31232,7 +31241,7 @@
     </row>
     <row r="710" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A710" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B710" s="47">
         <v>267</v>
@@ -31244,13 +31253,13 @@
         <v>91</v>
       </c>
       <c r="E710" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F710" s="26" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G710" s="26" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H710" s="28">
         <v>44154.837500000001</v>
@@ -31267,7 +31276,7 @@
     </row>
     <row r="711" spans="1:11" s="29" customFormat="1" ht="15">
       <c r="A711" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B711" s="47">
         <v>267</v>
@@ -31279,13 +31288,13 @@
         <v>91</v>
       </c>
       <c r="E711" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F711" s="26" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G711" s="26" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H711" s="28">
         <v>44154.837500000001</v>
@@ -31302,7 +31311,7 @@
     </row>
     <row r="712" spans="1:11" s="34" customFormat="1" ht="15">
       <c r="A712" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B712" s="48">
         <v>267</v>
@@ -31314,13 +31323,13 @@
         <v>91</v>
       </c>
       <c r="E712" s="31" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F712" s="31" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G712" s="31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H712" s="33">
         <v>44154.837500000001</v>
@@ -31337,33 +31346,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" location="'Sheet1'!B2" display="1.1"/>
-    <hyperlink ref="K3:K35" location="'Sheet1'!B2" display="1.1"/>
-    <hyperlink ref="K36:K58" location="'Sheet1'!B3" display="1.2"/>
-    <hyperlink ref="K59:K63" location="'Sheet1'!B4" display="1.3"/>
-    <hyperlink ref="K64:K74" location="'Sheet1'!B5" display="1.4"/>
-    <hyperlink ref="K75:K88" location="'Sheet1'!B6" display="1.5"/>
-    <hyperlink ref="K89:K97" location="'Sheet1'!B12" display="3.1"/>
-    <hyperlink ref="K98:K160" location="'Sheet1'!B13" display="3.2"/>
-    <hyperlink ref="K161:K166" location="'Sheet1'!B14" display="3.3"/>
-    <hyperlink ref="K167:K264" location="'Sheet1'!B15" display="3.4"/>
-    <hyperlink ref="K265:K282" location="'Sheet1'!B16" display="3.5"/>
-    <hyperlink ref="K283" location="'Sheet1'!B22" display="5.1"/>
-    <hyperlink ref="K284:K293" location="'Sheet1'!B23" display="5.2"/>
-    <hyperlink ref="K294:K295" location="'Sheet1'!B24" display="5.3"/>
-    <hyperlink ref="K296:K374" location="'Sheet1'!B7" display="2.1"/>
-    <hyperlink ref="K375:K379" location="'Sheet1'!B8" display="2.2"/>
-    <hyperlink ref="K380:K390" location="'Sheet1'!B9" display="2.3"/>
-    <hyperlink ref="K391:K392" location="'Sheet1'!B10" display="2.4"/>
-    <hyperlink ref="K393:K408" location="'Sheet1'!B11" display="2.5"/>
-    <hyperlink ref="K409:K419" location="'Sheet1'!B17" display="4.1"/>
-    <hyperlink ref="K420:K459" location="'Sheet1'!B18" display="4.2"/>
-    <hyperlink ref="K460:K469" location="'Sheet1'!B19" display="4.3"/>
-    <hyperlink ref="K470:K479" location="'Sheet1'!B20" display="4.4"/>
-    <hyperlink ref="K480:K483" location="'Sheet1'!B21" display="4.5"/>
-    <hyperlink ref="K484:K495" location="'Sheet1'!B25" display="6.1"/>
-    <hyperlink ref="K496:K504" location="'Sheet1'!B26" display="6.2"/>
-    <hyperlink ref="K505:K712" location="'Sheet1'!B27" display="6.3"/>
+    <hyperlink ref="K2" location="'Sheet1'!B2" display="1.1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K3:K35" location="'Sheet1'!B2" display="1.1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K36:K58" location="'Sheet1'!B3" display="1.2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K59:K63" location="'Sheet1'!B4" display="1.3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K64:K74" location="'Sheet1'!B5" display="1.4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K75:K88" location="'Sheet1'!B6" display="1.5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K89:K97" location="'Sheet1'!B12" display="3.1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K98:K160" location="'Sheet1'!B13" display="3.2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K161:K166" location="'Sheet1'!B14" display="3.3" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K167:K264" location="'Sheet1'!B15" display="3.4" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K265:K282" location="'Sheet1'!B16" display="3.5" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K283" location="'Sheet1'!B22" display="5.1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K284:K293" location="'Sheet1'!B23" display="5.2" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K294:K295" location="'Sheet1'!B24" display="5.3" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K296:K374" location="'Sheet1'!B7" display="2.1" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K375:K379" location="'Sheet1'!B8" display="2.2" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K380:K390" location="'Sheet1'!B9" display="2.3" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K391:K392" location="'Sheet1'!B10" display="2.4" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K393:K408" location="'Sheet1'!B11" display="2.5" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K409:K419" location="'Sheet1'!B17" display="4.1" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K420:K459" location="'Sheet1'!B18" display="4.2" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K460:K469" location="'Sheet1'!B19" display="4.3" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K470:K479" location="'Sheet1'!B20" display="4.4" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K480:K483" location="'Sheet1'!B21" display="4.5" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K484:K495" location="'Sheet1'!B25" display="6.1" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K496:K504" location="'Sheet1'!B26" display="6.2" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K505:K712" location="'Sheet1'!B27" display="6.3" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31371,12 +31380,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G134" sqref="G134"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -31438,7 +31447,7 @@
         <v>383</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>22</v>
@@ -31470,7 +31479,7 @@
         <v>460</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>22</v>
@@ -31502,7 +31511,7 @@
         <v>464</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>22</v>
@@ -31534,7 +31543,7 @@
         <v>365</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>22</v>
@@ -31566,7 +31575,7 @@
         <v>365</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>148</v>
@@ -31598,7 +31607,7 @@
         <v>365</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>22</v>
@@ -31627,10 +31636,10 @@
         <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>51</v>
@@ -31659,10 +31668,10 @@
         <v>16</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>45</v>
@@ -31691,10 +31700,10 @@
         <v>16</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>22</v>
@@ -31723,10 +31732,10 @@
         <v>16</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>148</v>
@@ -31755,10 +31764,10 @@
         <v>16</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>808</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>809</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -31790,7 +31799,7 @@
         <v>457</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -31819,10 +31828,10 @@
         <v>16</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>811</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>812</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -31854,7 +31863,7 @@
         <v>358</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>22</v>
@@ -31883,10 +31892,10 @@
         <v>16</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>814</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>815</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>22</v>
@@ -31915,10 +31924,10 @@
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>22</v>
@@ -31950,7 +31959,7 @@
         <v>439</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>22</v>
@@ -31982,7 +31991,7 @@
         <v>365</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>45</v>
@@ -32014,7 +32023,7 @@
         <v>365</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>30</v>
@@ -32046,7 +32055,7 @@
         <v>365</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>177</v>
@@ -32078,7 +32087,7 @@
         <v>365</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -32110,7 +32119,7 @@
         <v>365</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>30</v>
@@ -32125,7 +32134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="16" customFormat="1" ht="45">
+    <row r="24" spans="1:10" s="16" customFormat="1" ht="30">
       <c r="A24" s="13" t="s">
         <v>14</v>
       </c>
@@ -32139,10 +32148,10 @@
         <v>16</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>823</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>824</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>22</v>
@@ -32165,7 +32174,7 @@
         <v>261</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>16</v>
@@ -32174,7 +32183,7 @@
         <v>64</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>22</v>
@@ -32197,16 +32206,16 @@
         <v>261</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>41</v>
@@ -32229,16 +32238,16 @@
         <v>261</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>22</v>
@@ -32261,16 +32270,16 @@
         <v>261</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>22</v>
@@ -32293,7 +32302,7 @@
         <v>261</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>16</v>
@@ -32302,7 +32311,7 @@
         <v>64</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>41</v>
@@ -32325,7 +32334,7 @@
         <v>261</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>16</v>
@@ -32334,7 +32343,7 @@
         <v>64</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>22</v>
@@ -32357,16 +32366,16 @@
         <v>261</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>22</v>
@@ -32389,7 +32398,7 @@
         <v>261</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>16</v>
@@ -32398,7 +32407,7 @@
         <v>64</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>41</v>
@@ -32413,7 +32422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="21" customFormat="1" ht="30">
+    <row r="33" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A33" s="18" t="s">
         <v>128</v>
       </c>
@@ -32421,7 +32430,7 @@
         <v>261</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>16</v>
@@ -32430,7 +32439,7 @@
         <v>64</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>30</v>
@@ -32453,16 +32462,16 @@
         <v>261</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>22</v>
@@ -32485,16 +32494,16 @@
         <v>261</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>41</v>
@@ -32517,16 +32526,16 @@
         <v>261</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>22</v>
@@ -32549,16 +32558,16 @@
         <v>261</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>22</v>
@@ -32581,16 +32590,16 @@
         <v>261</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G38" s="18" t="s">
         <v>148</v>
@@ -32613,16 +32622,16 @@
         <v>261</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>22</v>
@@ -32645,13 +32654,13 @@
         <v>261</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>226</v>
@@ -32677,7 +32686,7 @@
         <v>261</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>16</v>
@@ -32686,7 +32695,7 @@
         <v>64</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>22</v>
@@ -32709,7 +32718,7 @@
         <v>261</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>16</v>
@@ -32718,7 +32727,7 @@
         <v>64</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>22</v>
@@ -32741,7 +32750,7 @@
         <v>261</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>16</v>
@@ -32750,7 +32759,7 @@
         <v>64</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>188</v>
@@ -32773,7 +32782,7 @@
         <v>261</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>16</v>
@@ -32782,7 +32791,7 @@
         <v>64</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>188</v>
@@ -32805,7 +32814,7 @@
         <v>261</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>16</v>
@@ -32814,7 +32823,7 @@
         <v>64</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>188</v>
@@ -32837,16 +32846,16 @@
         <v>261</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>22</v>
@@ -32869,16 +32878,16 @@
         <v>261</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>22</v>
@@ -32901,16 +32910,16 @@
         <v>261</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>148</v>
@@ -32933,16 +32942,16 @@
         <v>261</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>22</v>
@@ -32965,16 +32974,16 @@
         <v>261</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>22</v>
@@ -32997,16 +33006,16 @@
         <v>261</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>22</v>
@@ -33029,16 +33038,16 @@
         <v>261</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="49" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>22</v>
@@ -33061,16 +33070,16 @@
         <v>261</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>22</v>
@@ -33085,7 +33094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="21" customFormat="1" ht="105">
+    <row r="54" spans="1:10" s="21" customFormat="1" ht="90">
       <c r="A54" s="18" t="s">
         <v>128</v>
       </c>
@@ -33093,16 +33102,16 @@
         <v>261</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E54" s="49" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>22</v>
@@ -33125,16 +33134,16 @@
         <v>261</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E55" s="49" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>22</v>
@@ -33157,16 +33166,16 @@
         <v>261</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E56" s="49" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G56" s="18" t="s">
         <v>22</v>
@@ -33189,16 +33198,16 @@
         <v>261</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E57" s="49" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G57" s="18" t="s">
         <v>22</v>
@@ -33221,16 +33230,16 @@
         <v>261</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E58" s="49" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G58" s="18" t="s">
         <v>22</v>
@@ -33253,16 +33262,16 @@
         <v>261</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G59" s="18" t="s">
         <v>22</v>
@@ -33285,16 +33294,16 @@
         <v>261</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>22</v>
@@ -33317,16 +33326,16 @@
         <v>261</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E61" s="49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>41</v>
@@ -33349,16 +33358,16 @@
         <v>261</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E62" s="50" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G62" s="22" t="s">
         <v>22</v>
@@ -33387,10 +33396,10 @@
         <v>16</v>
       </c>
       <c r="E63" s="51" t="s">
+        <v>860</v>
+      </c>
+      <c r="F63" s="51" t="s">
         <v>861</v>
-      </c>
-      <c r="F63" s="51" t="s">
-        <v>862</v>
       </c>
       <c r="G63" s="51" t="s">
         <v>22</v>
@@ -33419,10 +33428,10 @@
         <v>16</v>
       </c>
       <c r="E64" s="51" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F64" s="51" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G64" s="51" t="s">
         <v>45</v>
@@ -33451,10 +33460,10 @@
         <v>16</v>
       </c>
       <c r="E65" s="51" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F65" s="51" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G65" s="51" t="s">
         <v>45</v>
@@ -33483,10 +33492,10 @@
         <v>16</v>
       </c>
       <c r="E66" s="51" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F66" s="51" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G66" s="51" t="s">
         <v>45</v>
@@ -33515,10 +33524,10 @@
         <v>16</v>
       </c>
       <c r="E67" s="51" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F67" s="51" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G67" s="51" t="s">
         <v>45</v>
@@ -33547,10 +33556,10 @@
         <v>16</v>
       </c>
       <c r="E68" s="51" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F68" s="51" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G68" s="51" t="s">
         <v>22</v>
@@ -33579,10 +33588,10 @@
         <v>16</v>
       </c>
       <c r="E69" s="51" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F69" s="51" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G69" s="51" t="s">
         <v>22</v>
@@ -33611,10 +33620,10 @@
         <v>16</v>
       </c>
       <c r="E70" s="51" t="s">
+        <v>868</v>
+      </c>
+      <c r="F70" s="51" t="s">
         <v>869</v>
-      </c>
-      <c r="F70" s="51" t="s">
-        <v>870</v>
       </c>
       <c r="G70" s="51" t="s">
         <v>22</v>
@@ -33643,10 +33652,10 @@
         <v>16</v>
       </c>
       <c r="E71" s="51" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F71" s="51" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G71" s="51" t="s">
         <v>22</v>
@@ -33675,10 +33684,10 @@
         <v>16</v>
       </c>
       <c r="E72" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F72" s="51" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G72" s="51" t="s">
         <v>22</v>
@@ -33707,10 +33716,10 @@
         <v>16</v>
       </c>
       <c r="E73" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F73" s="51" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G73" s="51" t="s">
         <v>148</v>
@@ -33739,10 +33748,10 @@
         <v>16</v>
       </c>
       <c r="E74" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F74" s="51" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G74" s="51" t="s">
         <v>22</v>
@@ -33771,10 +33780,10 @@
         <v>16</v>
       </c>
       <c r="E75" s="54" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F75" s="54" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G75" s="54" t="s">
         <v>22</v>
@@ -33806,7 +33815,7 @@
         <v>111</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>22</v>
@@ -33838,7 +33847,7 @@
         <v>111</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>22</v>
@@ -33853,7 +33862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="11" customFormat="1" ht="75">
+    <row r="78" spans="1:10" s="11" customFormat="1" ht="60">
       <c r="A78" s="8" t="s">
         <v>356</v>
       </c>
@@ -33870,7 +33879,7 @@
         <v>96</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>22</v>
@@ -33902,7 +33911,7 @@
         <v>102</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>22</v>
@@ -33919,7 +33928,7 @@
     </row>
     <row r="80" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A80" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B80" s="45">
         <v>266</v>
@@ -33934,7 +33943,7 @@
         <v>218</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G80" s="18" t="s">
         <v>22</v>
@@ -33951,7 +33960,7 @@
     </row>
     <row r="81" spans="1:10" s="21" customFormat="1" ht="45">
       <c r="A81" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B81" s="45">
         <v>266</v>
@@ -33966,7 +33975,7 @@
         <v>218</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G81" s="18" t="s">
         <v>22</v>
@@ -33983,7 +33992,7 @@
     </row>
     <row r="82" spans="1:10" s="21" customFormat="1" ht="75">
       <c r="A82" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B82" s="45">
         <v>266</v>
@@ -33998,7 +34007,7 @@
         <v>218</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G82" s="18" t="s">
         <v>22</v>
@@ -34015,7 +34024,7 @@
     </row>
     <row r="83" spans="1:10" s="21" customFormat="1" ht="60">
       <c r="A83" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B83" s="45">
         <v>266</v>
@@ -34030,7 +34039,7 @@
         <v>218</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G83" s="18" t="s">
         <v>22</v>
@@ -34047,7 +34056,7 @@
     </row>
     <row r="84" spans="1:10" s="21" customFormat="1" ht="105">
       <c r="A84" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B84" s="45">
         <v>266</v>
@@ -34062,7 +34071,7 @@
         <v>17</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G84" s="18" t="s">
         <v>22</v>
@@ -34079,7 +34088,7 @@
     </row>
     <row r="85" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A85" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B85" s="45">
         <v>266</v>
@@ -34091,10 +34100,10 @@
         <v>16</v>
       </c>
       <c r="E85" s="18" t="s">
+        <v>884</v>
+      </c>
+      <c r="F85" s="18" t="s">
         <v>885</v>
-      </c>
-      <c r="F85" s="18" t="s">
-        <v>886</v>
       </c>
       <c r="G85" s="18" t="s">
         <v>22</v>
@@ -34111,7 +34120,7 @@
     </row>
     <row r="86" spans="1:10" s="21" customFormat="1" ht="135">
       <c r="A86" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B86" s="45">
         <v>266</v>
@@ -34123,10 +34132,10 @@
         <v>16</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G86" s="18" t="s">
         <v>22</v>
@@ -34143,7 +34152,7 @@
     </row>
     <row r="87" spans="1:10" s="21" customFormat="1" ht="120">
       <c r="A87" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B87" s="45">
         <v>266</v>
@@ -34155,10 +34164,10 @@
         <v>16</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G87" s="18" t="s">
         <v>22</v>
@@ -34175,7 +34184,7 @@
     </row>
     <row r="88" spans="1:10" s="21" customFormat="1" ht="75">
       <c r="A88" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B88" s="45">
         <v>266</v>
@@ -34190,7 +34199,7 @@
         <v>232</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G88" s="18" t="s">
         <v>22</v>
@@ -34207,7 +34216,7 @@
     </row>
     <row r="89" spans="1:10" s="21" customFormat="1" ht="30">
       <c r="A89" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B89" s="45">
         <v>266</v>
@@ -34222,7 +34231,7 @@
         <v>232</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G89" s="18" t="s">
         <v>22</v>
@@ -34239,7 +34248,7 @@
     </row>
     <row r="90" spans="1:10" s="21" customFormat="1" ht="120">
       <c r="A90" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B90" s="45">
         <v>266</v>
@@ -34254,7 +34263,7 @@
         <v>232</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>22</v>
@@ -34271,7 +34280,7 @@
     </row>
     <row r="91" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A91" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B91" s="45">
         <v>266</v>
@@ -34286,7 +34295,7 @@
         <v>232</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G91" s="18" t="s">
         <v>22</v>
@@ -34303,7 +34312,7 @@
     </row>
     <row r="92" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A92" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B92" s="45">
         <v>266</v>
@@ -34318,7 +34327,7 @@
         <v>130</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G92" s="18" t="s">
         <v>22</v>
@@ -34335,7 +34344,7 @@
     </row>
     <row r="93" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A93" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B93" s="45">
         <v>266</v>
@@ -34350,7 +34359,7 @@
         <v>130</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G93" s="18" t="s">
         <v>148</v>
@@ -34367,7 +34376,7 @@
     </row>
     <row r="94" spans="1:10" s="21" customFormat="1" ht="105">
       <c r="A94" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B94" s="45">
         <v>266</v>
@@ -34382,7 +34391,7 @@
         <v>70</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G94" s="18" t="s">
         <v>22</v>
@@ -34399,7 +34408,7 @@
     </row>
     <row r="95" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A95" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B95" s="45">
         <v>266</v>
@@ -34414,7 +34423,7 @@
         <v>70</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>22</v>
@@ -34431,7 +34440,7 @@
     </row>
     <row r="96" spans="1:10" s="21" customFormat="1" ht="45">
       <c r="A96" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B96" s="45">
         <v>266</v>
@@ -34446,7 +34455,7 @@
         <v>70</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G96" s="18" t="s">
         <v>22</v>
@@ -34463,7 +34472,7 @@
     </row>
     <row r="97" spans="1:10" s="21" customFormat="1" ht="120">
       <c r="A97" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B97" s="45">
         <v>266</v>
@@ -34478,7 +34487,7 @@
         <v>189</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G97" s="18" t="s">
         <v>22</v>
@@ -34493,9 +34502,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="21" customFormat="1" ht="165">
+    <row r="98" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A98" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B98" s="45">
         <v>266</v>
@@ -34510,7 +34519,7 @@
         <v>189</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G98" s="18" t="s">
         <v>22</v>
@@ -34527,7 +34536,7 @@
     </row>
     <row r="99" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A99" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B99" s="45">
         <v>266</v>
@@ -34542,7 +34551,7 @@
         <v>189</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G99" s="18" t="s">
         <v>22</v>
@@ -34559,7 +34568,7 @@
     </row>
     <row r="100" spans="1:10" s="21" customFormat="1" ht="105">
       <c r="A100" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B100" s="45">
         <v>266</v>
@@ -34574,7 +34583,7 @@
         <v>189</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G100" s="18" t="s">
         <v>22</v>
@@ -34591,7 +34600,7 @@
     </row>
     <row r="101" spans="1:10" s="21" customFormat="1" ht="60">
       <c r="A101" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B101" s="45">
         <v>266</v>
@@ -34606,7 +34615,7 @@
         <v>189</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G101" s="18" t="s">
         <v>22</v>
@@ -34623,7 +34632,7 @@
     </row>
     <row r="102" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A102" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B102" s="45">
         <v>266</v>
@@ -34638,7 +34647,7 @@
         <v>317</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G102" s="18" t="s">
         <v>22</v>
@@ -34655,7 +34664,7 @@
     </row>
     <row r="103" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A103" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B103" s="45">
         <v>266</v>
@@ -34670,7 +34679,7 @@
         <v>317</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G103" s="18" t="s">
         <v>148</v>
@@ -34687,7 +34696,7 @@
     </row>
     <row r="104" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A104" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B104" s="45">
         <v>266</v>
@@ -34702,7 +34711,7 @@
         <v>135</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G104" s="18" t="s">
         <v>41</v>
@@ -34719,7 +34728,7 @@
     </row>
     <row r="105" spans="1:10" s="21" customFormat="1" ht="90">
       <c r="A105" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B105" s="45">
         <v>266</v>
@@ -34734,7 +34743,7 @@
         <v>135</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G105" s="18" t="s">
         <v>22</v>
@@ -34751,7 +34760,7 @@
     </row>
     <row r="106" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A106" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B106" s="45">
         <v>266</v>
@@ -34766,7 +34775,7 @@
         <v>322</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G106" s="18" t="s">
         <v>22</v>
@@ -34783,7 +34792,7 @@
     </row>
     <row r="107" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A107" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B107" s="45">
         <v>266</v>
@@ -34798,7 +34807,7 @@
         <v>322</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G107" s="18" t="s">
         <v>22</v>
@@ -34815,7 +34824,7 @@
     </row>
     <row r="108" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A108" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B108" s="45">
         <v>266</v>
@@ -34830,7 +34839,7 @@
         <v>322</v>
       </c>
       <c r="F108" s="57" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G108" s="18" t="s">
         <v>34</v>
@@ -34847,7 +34856,7 @@
     </row>
     <row r="109" spans="1:10" s="21" customFormat="1" ht="135">
       <c r="A109" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B109" s="45">
         <v>266</v>
@@ -34862,7 +34871,7 @@
         <v>322</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G109" s="18" t="s">
         <v>22</v>
@@ -34877,9 +34886,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="21" customFormat="1" ht="150">
+    <row r="110" spans="1:10" s="21" customFormat="1" ht="135">
       <c r="A110" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B110" s="45">
         <v>266</v>
@@ -34894,7 +34903,7 @@
         <v>322</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G110" s="18" t="s">
         <v>22</v>
@@ -34911,7 +34920,7 @@
     </row>
     <row r="111" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A111" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B111" s="45">
         <v>266</v>
@@ -34926,7 +34935,7 @@
         <v>17</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G111" s="18" t="s">
         <v>34</v>
@@ -34943,7 +34952,7 @@
     </row>
     <row r="112" spans="1:10" s="21" customFormat="1" ht="75">
       <c r="A112" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B112" s="45">
         <v>266</v>
@@ -34958,7 +34967,7 @@
         <v>17</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G112" s="18" t="s">
         <v>22</v>
@@ -34975,7 +34984,7 @@
     </row>
     <row r="113" spans="1:10" s="21" customFormat="1" ht="90">
       <c r="A113" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B113" s="45">
         <v>266</v>
@@ -34987,10 +34996,10 @@
         <v>16</v>
       </c>
       <c r="E113" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="F113" s="18" t="s">
         <v>914</v>
-      </c>
-      <c r="F113" s="18" t="s">
-        <v>915</v>
       </c>
       <c r="G113" s="18" t="s">
         <v>22</v>
@@ -35007,7 +35016,7 @@
     </row>
     <row r="114" spans="1:10" s="21" customFormat="1" ht="75">
       <c r="A114" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B114" s="45">
         <v>266</v>
@@ -35019,10 +35028,10 @@
         <v>16</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G114" s="18" t="s">
         <v>22</v>
@@ -35039,7 +35048,7 @@
     </row>
     <row r="115" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A115" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B115" s="45">
         <v>266</v>
@@ -35051,10 +35060,10 @@
         <v>16</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F115" s="57" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G115" s="18" t="s">
         <v>41</v>
@@ -35071,7 +35080,7 @@
     </row>
     <row r="116" spans="1:10" s="21" customFormat="1" ht="150">
       <c r="A116" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B116" s="45">
         <v>266</v>
@@ -35083,10 +35092,10 @@
         <v>16</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G116" s="18" t="s">
         <v>22</v>
@@ -35103,7 +35112,7 @@
     </row>
     <row r="117" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A117" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B117" s="45">
         <v>266</v>
@@ -35115,10 +35124,10 @@
         <v>16</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G117" s="18" t="s">
         <v>30</v>
@@ -35135,7 +35144,7 @@
     </row>
     <row r="118" spans="1:10" s="21" customFormat="1" ht="120">
       <c r="A118" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B118" s="45">
         <v>266</v>
@@ -35150,7 +35159,7 @@
         <v>211</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G118" s="18" t="s">
         <v>22</v>
@@ -35167,7 +35176,7 @@
     </row>
     <row r="119" spans="1:10" s="21" customFormat="1" ht="225">
       <c r="A119" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B119" s="45">
         <v>266</v>
@@ -35182,7 +35191,7 @@
         <v>211</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G119" s="18" t="s">
         <v>22</v>
@@ -35199,7 +35208,7 @@
     </row>
     <row r="120" spans="1:10" s="21" customFormat="1" ht="45">
       <c r="A120" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B120" s="45">
         <v>266</v>
@@ -35214,7 +35223,7 @@
         <v>138</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G120" s="18" t="s">
         <v>30</v>
@@ -35231,7 +35240,7 @@
     </row>
     <row r="121" spans="1:10" s="21" customFormat="1" ht="75">
       <c r="A121" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B121" s="45">
         <v>266</v>
@@ -35246,7 +35255,7 @@
         <v>138</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G121" s="18" t="s">
         <v>22</v>
@@ -35263,7 +35272,7 @@
     </row>
     <row r="122" spans="1:10" s="21" customFormat="1" ht="15">
       <c r="A122" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B122" s="45">
         <v>266</v>
@@ -35278,7 +35287,7 @@
         <v>317</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G122" s="18" t="s">
         <v>34</v>
@@ -35295,7 +35304,7 @@
     </row>
     <row r="123" spans="1:10" s="25" customFormat="1" ht="90">
       <c r="A123" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B123" s="46">
         <v>266</v>
@@ -35310,7 +35319,7 @@
         <v>317</v>
       </c>
       <c r="F123" s="22" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G123" s="22" t="s">
         <v>22</v>
@@ -35325,9 +35334,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="29" customFormat="1" ht="105">
+    <row r="124" spans="1:10" s="29" customFormat="1" ht="90">
       <c r="A124" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B124" s="47">
         <v>266</v>
@@ -35339,10 +35348,10 @@
         <v>16</v>
       </c>
       <c r="E124" s="26" t="s">
+        <v>925</v>
+      </c>
+      <c r="F124" s="26" t="s">
         <v>926</v>
-      </c>
-      <c r="F124" s="26" t="s">
-        <v>927</v>
       </c>
       <c r="G124" s="26" t="s">
         <v>22</v>
@@ -35359,7 +35368,7 @@
     </row>
     <row r="125" spans="1:10" s="29" customFormat="1" ht="75">
       <c r="A125" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B125" s="47">
         <v>266</v>
@@ -35371,10 +35380,10 @@
         <v>16</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F125" s="26" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G125" s="26" t="s">
         <v>22</v>
@@ -35391,7 +35400,7 @@
     </row>
     <row r="126" spans="1:10" s="29" customFormat="1" ht="150">
       <c r="A126" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B126" s="47">
         <v>266</v>
@@ -35403,10 +35412,10 @@
         <v>16</v>
       </c>
       <c r="E126" s="26" t="s">
+        <v>928</v>
+      </c>
+      <c r="F126" s="26" t="s">
         <v>929</v>
-      </c>
-      <c r="F126" s="26" t="s">
-        <v>930</v>
       </c>
       <c r="G126" s="26" t="s">
         <v>22</v>
@@ -35423,7 +35432,7 @@
     </row>
     <row r="127" spans="1:10" s="29" customFormat="1" ht="15">
       <c r="A127" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B127" s="47">
         <v>266</v>
@@ -35435,10 +35444,10 @@
         <v>16</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F127" s="26" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G127" s="26" t="s">
         <v>148</v>
@@ -35453,9 +35462,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="29" customFormat="1" ht="165">
+    <row r="128" spans="1:10" s="29" customFormat="1" ht="150">
       <c r="A128" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B128" s="47">
         <v>266</v>
@@ -35467,10 +35476,10 @@
         <v>16</v>
       </c>
       <c r="E128" s="26" t="s">
+        <v>931</v>
+      </c>
+      <c r="F128" s="26" t="s">
         <v>932</v>
-      </c>
-      <c r="F128" s="26" t="s">
-        <v>933</v>
       </c>
       <c r="G128" s="26" t="s">
         <v>22</v>
@@ -35487,7 +35496,7 @@
     </row>
     <row r="129" spans="1:10" s="29" customFormat="1" ht="15">
       <c r="A129" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B129" s="47">
         <v>266</v>
@@ -35499,10 +35508,10 @@
         <v>16</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F129" s="26" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G129" s="26" t="s">
         <v>148</v>
@@ -35519,7 +35528,7 @@
     </row>
     <row r="130" spans="1:10" s="29" customFormat="1" ht="75">
       <c r="A130" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B130" s="47">
         <v>266</v>
@@ -35534,7 +35543,7 @@
         <v>338</v>
       </c>
       <c r="F130" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G130" s="26" t="s">
         <v>22</v>
@@ -35551,7 +35560,7 @@
     </row>
     <row r="131" spans="1:10" s="34" customFormat="1" ht="30">
       <c r="A131" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B131" s="48">
         <v>266</v>
@@ -35566,7 +35575,7 @@
         <v>338</v>
       </c>
       <c r="F131" s="31" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G131" s="31" t="s">
         <v>22</v>
@@ -35588,14 +35597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -35612,7 +35621,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
@@ -35624,7 +35633,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="68.25" customHeight="1">
@@ -35638,11 +35647,11 @@
         <v>2</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E27" si="0">AVERAGE(B2:D2)</f>
+        <f>AVERAGE(B2:D2)</f>
         <v>2.5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="165.75">
@@ -35656,11 +35665,11 @@
         <v>3</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E2:E27" si="0">AVERAGE(B3:D3)</f>
         <v>3.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -35679,6 +35688,9 @@
       <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51">
@@ -35697,7 +35709,7 @@
         <v>2.5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="357">
@@ -35716,7 +35728,7 @@
         <v>2.5</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="197.25" customHeight="1">
@@ -35734,7 +35746,7 @@
         <v>3.5</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="171">
@@ -35753,7 +35765,7 @@
         <v>3.5</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="140.25">
@@ -35772,7 +35784,7 @@
         <v>3.5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75">
@@ -35792,6 +35804,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="165.75">
       <c r="A11" s="2">
@@ -35808,7 +35823,7 @@
         <v>3.5</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="76.5">
@@ -35827,7 +35842,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="76.5">
@@ -35846,7 +35861,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="89.25">
@@ -35865,7 +35880,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="204">
@@ -35884,7 +35899,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="76.5">
@@ -35902,7 +35917,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75">
@@ -35923,7 +35938,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="409.5" customHeight="1">
@@ -35941,7 +35956,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="71.25">
@@ -35960,7 +35975,7 @@
         <v>1.5</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="128.25">
@@ -35979,7 +35994,7 @@
         <v>3.5</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25">
@@ -36000,7 +36015,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="57">
@@ -36018,7 +36033,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42.75">
@@ -36037,7 +36052,7 @@
         <v>2.5</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="57">
@@ -36056,7 +36071,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25">
@@ -36077,7 +36092,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="153">
@@ -36096,7 +36111,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="191.25">
@@ -36114,7 +36129,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75">
@@ -40025,15 +40040,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100195B6EB0930B224992B3A201B074F173" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56723570176e95b428af1091ac9a464e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="029a9069-a445-41ca-8e19-2bb41f0cfa6a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9907b55f7a5a8453464d834074599afc" ns2:_="">
     <xsd:import namespace="029a9069-a445-41ca-8e19-2bb41f0cfa6a"/>
@@ -40211,6 +40217,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F7D39BB-8B24-4A3E-B1EA-2CBC827CA500}">
   <ds:schemaRefs>
@@ -40228,14 +40243,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E53651A-7C75-4177-B0F1-FB75595D6E42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F9FA16C-355B-4479-AA6B-79526549C21B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40251,4 +40258,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E53651A-7C75-4177-B0F1-FB75595D6E42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>